--- a/スキルシート/スキルシート(小林雄磨).xlsx
+++ b/スキルシート/スキルシート(小林雄磨).xlsx
@@ -4,21 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16575" windowHeight="15885"/>
+    <workbookView windowWidth="24300" windowHeight="12945"/>
   </bookViews>
   <sheets>
     <sheet name="スキルシート" sheetId="1" r:id="rId1"/>
     <sheet name="記入例" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">スキルシート!$A$1:$U$22</definedName>
-  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97">
   <si>
     <t>スキルシート</t>
   </si>
@@ -135,67 +132,100 @@
     <t>期間</t>
   </si>
   <si>
-    <t>建築会社向け業務システム
-内　熱負荷計算システムを対応
-フロント、バックエンド両担当
-・設計工程
-既存システムの追加開発の対応であるが、
-設計書が未存在 及び　存在する設計書も誤りや、ほぼ未記入の為、
-現行の実装から
-設計書 + 追加開発分の設計書の作成
-・開発工程
-既存システムの追加開発　及び
-既存システムのバグ対応
-angularのバージョンアップ対応 8 → 13
-ライブラリやコンポーネント、共通部品やapi、service、storeがごった煮だったため、整理
-・フロント情報
-①portal　(大本の画面:別チームが製造)にiframeで熱負荷計算システムで読込表示
-②画面情報は全てNgRxで状態管理を行う事でComponent 間での値の受け渡しを統一
-③ローカルでのportal 及び DB の仮想サーバーとして、Dockerを利用(ローカル以外ではAWSのRDSを使用)
-・UI ライブラリ
-Angular Material
-wijmo
-・Angularライブラリ
-RxJS
-NgRx
-AWSに関しては、構築及び運用はしていない</t>
+    <t>ECサイト新規開発案件
+フロント:TypeScript(Vue)
+バックエンド:Java(Spring)
+開発手法::ｳｫｰﾀｰﾌｫｰﾙ
+フロント・バックエンド両方担当
+担当:詳細～
+内容:新規開発バックエンド要因として参画
+途中、フロント側の工数遅れ + Angularでのフロント開発の知見があるとのことでフロント開発にも参加
+主な開発実績
+詳細設計
+・アカウント系、商品系、カート系のバックエンド詳細設計
+バックエンド開発
+・JavaでのREST APIのサンプル開発
+及び、ECサイトの主要API(商品系、アカウント系、カート系・・・etc)の開発
+・REST APIのcontrollerエラーハンドリング開発
+・Junit、DBUnitでのUnitテストのサンプル開発、及び、開発APIのUnitテストを作成
+フロント開発
+管理画面系の開発を担当
+(カテゴリー追加/削除、商品追加/編集/削除等)
+カテゴリーや、商品はpiniaでの状態管理を行う</t>
   </si>
   <si>
     <t>●</t>
   </si>
   <si>
     <t>【OS】
-Windows10
+Windows11
 【DB】
-PostgreSQL　14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">【言語】
+PostgreSQL</t>
+  </si>
+  <si>
+    <t>【言語】
+Java
 TypeScript
-C#
 【開発系】
-Angular8 → 13
-Bootstrap
-Tailwind CSS
-AWS(CloudWatch,
-S3,Route53,CloudFront,EC2,API Gateway,Lambda,RDS,CodePipeline,CodeCommit,CodeBuild)
+Spring
+JUnit
+DBUnit
+vue3
+pinia
+【ｿｰｽ管理＆ﾌｧｲﾙ管理】
+Git
+【その他】
+Eclipse
+Visual Studio Code
+Sakura Editor
 swagger
 Postman
-Visual Studio Code
-Visual Studio 2022
-Sakura Editor
-Docker
-【ｿｰｽ管理】
-Sourcetree
-Git
 【ﾀｽｸ管理】
 backlog
 【コミュニケーションツール】
 Slack
 Teams
 【開発手法】
-ウォーターフォール
-</t>
+:ｳｫｰﾀｰﾌｫｰﾙ</t>
+  </si>
+  <si>
+    <t>食品の棚卸し管理システム
+フロント:TypeScript
+バックエンド:Java(Spring)
+開発手法:ｳｫｰﾀｰﾌｫｰﾙ
+フロント・バックエンド両方担当
+担当:開発～
+内容:開発の途中から入場し、
+ソースコードをオフショアが担当していたが
+単体、結合でバグが多発、修正要員が足らなくなったため
+こちらの開発も2.2の案件と並行担当。
+全画面、バッチ領域に及ぶ、バグの発見及び修正対応</t>
+  </si>
+  <si>
+    <t>【OS】
+Windows10
+【DB】
+PostgreSQL</t>
+  </si>
+  <si>
+    <t>【言語】
+Java
+TypeScript
+【開発系】
+Spring
+【ｿｰｽ管理】
+Git
+【ﾌｧｲﾙ管理】
+TortoiseSVN
+【その他】
+Eclipse
+Sakura Editor
+WinSCP
+【ﾀｽｸ管理】
+Redmine
+Excel
+【開発手法】
+ｳｫｰﾀｰﾌｫｰﾙ</t>
   </si>
   <si>
     <t xml:space="preserve">販促資材受発注システム
@@ -234,7 +264,7 @@
   </si>
   <si>
     <t>【OS】
-Windows8
+Windows10
 Linux
 【DB】
 PostgreSQL</t>
@@ -244,7 +274,7 @@
 TypeScript
 Python
 【開発系】
-Angular 8
+Angular
 【ｿｰｽ管理】
 Git
 【ﾌｧｲﾙ管理】
@@ -271,43 +301,57 @@
 Auth0</t>
   </si>
   <si>
-    <t>食品の棚卸し管理システム
-フロント:TypeScript
-バックエンド:Java8(Spring)
-開発手法:ｳｫｰﾀｰﾌｫｰﾙ
-フロント・バックエンド両方担当
-担当:開発～
-内容:開発の途中から入場し、
-ソースコードをオフショアが担当していたが
-単体、結合でバグが多発、修正要員が足らなくなったため
-こちらの開発も1.1の案件と並行担当。
-全画面、バッチ領域に及ぶ、バグの発見及び修正対応</t>
-  </si>
-  <si>
-    <t>【OS】
-Windows8
-【DB】
-PostgreSQL</t>
-  </si>
-  <si>
-    <t>【言語】
-Java8
+    <t>建築会社向け業務システム
+内　熱負荷計算システムを対応
+フロント、バックエンド両担当
+・設計工程
+既存システムの追加開発の対応であるが、
+設計書が未存在 及び　存在する設計書も誤りや、ほぼ未記入の為、
+現行の実装から
+設計書 + 追加開発分の設計書の作成
+・開発工程
+既存システムの追加開発　及び
+既存システムのバグ対応
+angularのバージョンアップ対応 8 → 11
+ライブラリやコンポーネント、共通部品やapi、service、storeがごった煮だったため、整理
+・フロント情報
+①portal　(大本の画面:別チームが製造)にiframeで熱負荷計算システムで読込表示
+②画面情報は全てNgRxで状態管理を行う事でComponent 間での値の受け渡しを統一
+③ローカルでのportal 及び DB の仮想サーバーとして、Dockerを利用(ローカル以外ではAWSのRDSを使用)
+・UI ライブラリ
+Angular Material
+wijmo
+・Angularライブラリ
+RxJS
+NgRx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">【言語】
 TypeScript
+C#
 【開発系】
-Spring
+Angular
+Bootstrap
+Tailwind CSS
+AWS(CloudWatch,
+S3,Route53,CloudFront,EC2,API Gateway,Lambda,RDS,CodePipeline,CodeCommit,CodeBuild)
+swagger
+Postman
+Visual Studio Code
+Visual Studio
+Sakura Editor
+Docker
 【ｿｰｽ管理】
+Sourcetree
 Git
-【ﾌｧｲﾙ管理】
-TortoiseSVN
-【その他】
-Eclipse
-Sakura Editor
-WinSCP
 【ﾀｽｸ管理】
-Redmine
-Excel
+backlog
+【コミュニケーションツール】
+Slack
+Teams
 【開発手法】
-ｳｫｰﾀｰﾌｫｰﾙ</t>
+ウォーターフォール
+</t>
   </si>
   <si>
     <t>情報通信業/社内システム開発
@@ -360,7 +404,7 @@
         <rFont val="MS PGothic"/>
         <charset val="134"/>
       </rPr>
-      <t>Java8</t>
+      <t>Java</t>
     </r>
     <r>
       <rPr>
@@ -372,113 +416,23 @@
       <t xml:space="preserve">
 JavaScript
 【開発系】
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="MS PGothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> Spring
+ Spring
  Angular
  JUnit
  DBUnit
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="MS PGothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">【ｿｰｽ管理】
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="MS PGothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Git
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="MS PGothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">【ﾌｧｲﾙ管理】
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="MS PGothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> TortoiseSVN
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="MS PGothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">【その他】
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="MS PGothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Eclipse
+【ｿｰｽ管理】
+Git
+【ﾌｧｲﾙ管理】
+ TortoiseSVN
+【その他】
+Eclipse
 Visual Studio Code
 Sakura Editor
 WinSCP
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="MS PGothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">【ﾀｽｸ管理】
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="MS PGothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">Redmine
+【ﾀｽｸ管理】
+Redmine
 Excel
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="MS PGothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>【開発手法】
+【開発手法】
 ｱｼﾞｬｲﾙ</t>
     </r>
   </si>
@@ -532,7 +486,7 @@
         <rFont val="ＭＳ Ｐゴシック"/>
         <charset val="134"/>
       </rPr>
-      <t>Java8</t>
+      <t>Java</t>
     </r>
     <r>
       <rPr>
@@ -625,7 +579,7 @@
         <rFont val="ＭＳ Ｐゴシック"/>
         <charset val="134"/>
       </rPr>
-      <t>Java8</t>
+      <t>Java</t>
     </r>
     <r>
       <rPr>
@@ -1161,14 +1115,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/mm"/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d&quot;現&quot;&quot;在&quot;"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="yyyy/mm&quot;～&quot;"/>
-    <numFmt numFmtId="181" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy/mm"/>
+    <numFmt numFmtId="178" formatCode="yyyy/m/d&quot;現&quot;&quot;在&quot;"/>
+    <numFmt numFmtId="179" formatCode="yyyy/mm&quot;～&quot;"/>
+    <numFmt numFmtId="180" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="181" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1249,11 +1203,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="6"/>
-      <name val="MS PGothic"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="MS PGothic"/>
@@ -1261,37 +1210,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1306,40 +1232,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1366,23 +1261,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1405,7 +1286,75 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1446,7 +1395,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1458,7 +1467,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1470,97 +1533,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1578,49 +1551,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1884,6 +1833,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1900,21 +1858,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1925,26 +1868,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1973,6 +1896,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1981,156 +1919,167 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="181" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="65">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2156,7 +2105,7 @@
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2232,7 +2181,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2264,37 +2213,37 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
@@ -2366,11 +2315,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>1704975</xdr:rowOff>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>1314450</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="962025" cy="638175"/>
+    <xdr:ext cx="971550" cy="647700"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Shape 3"/>
@@ -2378,8 +2327,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5495925" y="20128865"/>
-          <a:ext cx="962025" cy="638175"/>
+          <a:off x="5772150" y="20447000"/>
+          <a:ext cx="971550" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2437,11 +2386,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>1066800</xdr:rowOff>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>828675</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="962025" cy="638175"/>
+    <xdr:ext cx="971550" cy="647700"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="Shape 4"/>
@@ -2449,8 +2398,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5495925" y="29863415"/>
-          <a:ext cx="962025" cy="638175"/>
+          <a:off x="5810250" y="29384625"/>
+          <a:ext cx="971550" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2508,11 +2457,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>2781300</xdr:rowOff>
+      <xdr:rowOff>1114425</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="962025" cy="638175"/>
+    <xdr:ext cx="971550" cy="647700"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="Shape 5"/>
@@ -2520,8 +2469,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5572125" y="9613265"/>
-          <a:ext cx="962025" cy="638175"/>
+          <a:off x="5810250" y="6854825"/>
+          <a:ext cx="971550" cy="647700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2568,7 +2517,7 @@
           </a:pPr>
           <a:r>
             <a:rPr lang="en-US" sz="800"/>
-            <a:t>TOTAL 31ヶ月</a:t>
+            <a:t>TOTAL 46ヶ月</a:t>
           </a:r>
           <a:endParaRPr sz="1400"/>
         </a:p>
@@ -2584,11 +2533,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>1600200</xdr:rowOff>
+      <xdr:rowOff>1590675</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="885825" cy="419100"/>
+    <xdr:ext cx="895350" cy="428625"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="Shape 6"/>
@@ -2596,8 +2545,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4495800" y="8810625"/>
-          <a:ext cx="885825" cy="419100"/>
+          <a:off x="4486275" y="8801100"/>
+          <a:ext cx="895350" cy="428625"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2655,11 +2604,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1085850" cy="962025"/>
+    <xdr:ext cx="1095375" cy="971550"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="Shape 7"/>
@@ -2667,8 +2616,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="314325" y="428625"/>
-          <a:ext cx="1085850" cy="962025"/>
+          <a:off x="304800" y="419100"/>
+          <a:ext cx="1095375" cy="971550"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -2887,11 +2836,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1362075</xdr:colOff>
+      <xdr:colOff>1352550</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1133475" cy="400050"/>
+    <xdr:ext cx="1143000" cy="409575"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="8" name="Shape 8"/>
@@ -2899,8 +2848,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1543050" y="1085850"/>
-          <a:ext cx="1133475" cy="400050"/>
+          <a:off x="1533525" y="1076325"/>
+          <a:ext cx="1143000" cy="409575"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3006,11 +2955,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1047750" cy="581025"/>
+    <xdr:ext cx="1057275" cy="590550"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="9" name="Shape 9"/>
@@ -3018,8 +2967,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2105025" y="609600"/>
-          <a:ext cx="1047750" cy="581025"/>
+          <a:off x="2095500" y="600075"/>
+          <a:ext cx="1057275" cy="590550"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3093,11 +3042,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
+      <xdr:colOff>542925</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1019175" cy="581025"/>
+    <xdr:ext cx="1028700" cy="590550"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="10" name="Shape 10"/>
@@ -3105,8 +3054,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4476750" y="609600"/>
-          <a:ext cx="1019175" cy="581025"/>
+          <a:off x="4476750" y="600075"/>
+          <a:ext cx="1028700" cy="590550"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3180,11 +3129,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>438150</xdr:rowOff>
+      <xdr:rowOff>428625</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1476375" cy="371475"/>
+    <xdr:ext cx="1485900" cy="381000"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="11" name="Shape 11"/>
@@ -3192,8 +3141,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5276850" y="2438400"/>
-          <a:ext cx="1476375" cy="371475"/>
+          <a:off x="5267325" y="2428875"/>
+          <a:ext cx="1485900" cy="381000"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3267,11 +3216,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
+      <xdr:colOff>247650</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>1152525</xdr:rowOff>
+      <xdr:rowOff>1143000</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1257300" cy="419100"/>
+    <xdr:ext cx="1266825" cy="428625"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="12" name="Shape 12"/>
@@ -3279,8 +3228,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4705350" y="3152775"/>
-          <a:ext cx="1257300" cy="419100"/>
+          <a:off x="4705350" y="3143250"/>
+          <a:ext cx="1266825" cy="428625"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3354,11 +3303,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>1104900</xdr:rowOff>
+      <xdr:rowOff>1095375</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2609850" cy="533400"/>
+    <xdr:ext cx="2619375" cy="542925"/>
     <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="13" name="Shape 13"/>
@@ -3366,8 +3315,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1666875" y="3105150"/>
-          <a:ext cx="2609850" cy="533400"/>
+          <a:off x="1657350" y="3095625"/>
+          <a:ext cx="2619375" cy="542925"/>
         </a:xfrm>
         <a:prstGeom prst="wedgeRoundRectCallout">
           <a:avLst>
@@ -3679,20 +3628,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z1002"/>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="150" zoomScaleNormal="160" zoomScaleSheetLayoutView="150" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3" customWidth="1"/>
+    <col min="1" max="1" width="4.14285714285714" customWidth="1"/>
     <col min="2" max="2" width="21.8571428571429" customWidth="1"/>
     <col min="3" max="3" width="2.71428571428571" customWidth="1"/>
     <col min="4" max="16" width="2.57142857142857" customWidth="1"/>
     <col min="17" max="17" width="9.85714285714286" customWidth="1"/>
-    <col min="18" max="18" width="11.5714285714286" customWidth="1"/>
+    <col min="18" max="18" width="13.5714285714286" customWidth="1"/>
     <col min="19" max="19" width="5.14285714285714" customWidth="1"/>
     <col min="20" max="20" width="5.42857142857143" customWidth="1"/>
     <col min="21" max="21" width="5.57142857142857" customWidth="1"/>
@@ -3717,7 +3666,7 @@
       <c r="S1" s="2"/>
       <c r="T1" s="40">
         <f ca="1">NOW()</f>
-        <v>45161.5623958333</v>
+        <v>45449.6328935185</v>
       </c>
       <c r="W1" s="41" t="s">
         <v>1</v>
@@ -3758,7 +3707,7 @@
       <c r="I3" s="6"/>
       <c r="J3" s="7" t="str">
         <f ca="1">DATEDIF(W2,TODAY(),"Y")&amp;"歳"</f>
-        <v>29歳</v>
+        <v>30歳</v>
       </c>
       <c r="K3" s="6"/>
       <c r="L3" s="5" t="s">
@@ -3777,7 +3726,7 @@
       </c>
       <c r="T3" s="7" t="str">
         <f>IF(DATEDIF(W5,Y5,"Y")=0,"",IF(DATEDIF(W5,Y5,"YM")+1=12,DATEDIF(W5,Y5,"Y")+1&amp;"年",DATEDIF(W5,Y5,"Y")&amp;"年"))&amp;IF(DATEDIF(W5,Y5,"YM")+1=12,"",DATEDIF(W5,Y5,"YM")+1&amp;"ヶ月")</f>
-        <v>7年5ヶ月</v>
+        <v>8年3ヶ月</v>
       </c>
       <c r="U3" s="43"/>
       <c r="W3" s="33"/>
@@ -3847,7 +3796,7 @@
       <c r="T5" s="9"/>
       <c r="U5" s="45"/>
       <c r="W5" s="42">
-        <f>$S$22</f>
+        <f>$S$23</f>
         <v>42461</v>
       </c>
       <c r="X5" s="46" t="s">
@@ -3855,7 +3804,7 @@
       </c>
       <c r="Y5" s="42">
         <f>U10</f>
-        <v>45169</v>
+        <v>45473</v>
       </c>
     </row>
     <row r="6" ht="16.5" customHeight="1" spans="1:21">
@@ -3986,23 +3935,21 @@
       <c r="U9" s="43"/>
       <c r="V9" s="33"/>
     </row>
-    <row r="10" ht="369.95" customHeight="1" spans="1:22">
-      <c r="A10" s="28">
+    <row r="10" ht="284" customHeight="1" spans="1:22">
+      <c r="A10" s="57">
         <v>1</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="58">
-        <v>4</v>
-      </c>
-      <c r="D10" s="59"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="30" t="s">
-        <v>38</v>
-      </c>
+      <c r="C10" s="28">
+        <v>10</v>
+      </c>
+      <c r="D10" s="29"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="30"/>
       <c r="I10" s="36" t="s">
         <v>38</v>
       </c>
@@ -4015,32 +3962,32 @@
       <c r="L10" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="M10" s="60"/>
-      <c r="N10" s="61"/>
-      <c r="O10" s="62"/>
-      <c r="P10" s="60"/>
-      <c r="Q10" s="64" t="s">
+      <c r="M10" s="30"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="32"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="R10" s="57" t="s">
+      <c r="R10" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="S10" s="56">
-        <v>44652</v>
+      <c r="S10" s="54">
+        <v>45200</v>
       </c>
       <c r="T10" s="55" t="str">
-        <f>""&amp;CHAR(10)&amp;"～"&amp;CHAR(10)&amp;IF(OR(S10="",U10=""),"","("&amp;DATEDIF(S10,U10,"M")+1&amp;"ヶ月)")</f>
+        <f t="shared" ref="T10:T16" si="0">""&amp;CHAR(10)&amp;"～"&amp;CHAR(10)&amp;IF(OR(S10="",U10=""),"","("&amp;DATEDIF(S10,U10,"M")+1&amp;"ヶ月)")</f>
         <v>
 ～
-(17ヶ月)</v>
+(9ヶ月)</v>
       </c>
       <c r="U10" s="56">
-        <v>45169</v>
+        <v>45473</v>
       </c>
       <c r="V10" s="33"/>
     </row>
-    <row r="11" ht="408" customHeight="1" spans="1:22">
-      <c r="A11" s="26">
+    <row r="11" ht="186" customHeight="1" spans="1:22">
+      <c r="A11" s="57">
         <v>2.1</v>
       </c>
       <c r="B11" s="27" t="s">
@@ -4053,12 +4000,8 @@
       <c r="E11" s="30"/>
       <c r="F11" s="31"/>
       <c r="G11" s="32"/>
-      <c r="H11" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="36" t="s">
-        <v>38</v>
-      </c>
+      <c r="H11" s="30"/>
+      <c r="I11" s="36"/>
       <c r="J11" s="37" t="s">
         <v>38</v>
       </c>
@@ -4079,21 +4022,21 @@
         <v>43</v>
       </c>
       <c r="S11" s="54">
-        <v>43709</v>
+        <v>44228</v>
       </c>
       <c r="T11" s="55" t="str">
-        <f t="shared" ref="T11:T15" si="0">""&amp;CHAR(10)&amp;"～"&amp;CHAR(10)&amp;IF(OR(S11="",U11=""),"","("&amp;DATEDIF(S11,U11,"M")+1&amp;"ヶ月)")</f>
+        <f t="shared" si="0"/>
         <v>
 ～
-(31ヶ月)</v>
+(32ヶ月)</v>
       </c>
       <c r="U11" s="56">
-        <v>44651</v>
+        <v>45199</v>
       </c>
       <c r="V11" s="33"/>
     </row>
-    <row r="12" ht="234" customHeight="1" spans="1:22">
-      <c r="A12" s="63">
+    <row r="12" ht="313.5" customHeight="1" spans="1:22">
+      <c r="A12" s="26">
         <f>A11+0.1</f>
         <v>2.2</v>
       </c>
@@ -4107,8 +4050,12 @@
       <c r="E12" s="30"/>
       <c r="F12" s="31"/>
       <c r="G12" s="32"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="36"/>
+      <c r="H12" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="36" t="s">
+        <v>38</v>
+      </c>
       <c r="J12" s="37" t="s">
         <v>38</v>
       </c>
@@ -4129,36 +4076,40 @@
         <v>46</v>
       </c>
       <c r="S12" s="54">
-        <v>43709</v>
+        <v>44228</v>
       </c>
       <c r="T12" s="55" t="str">
         <f t="shared" si="0"/>
         <v>
 ～
-(20ヶ月)</v>
+(14ヶ月)</v>
       </c>
       <c r="U12" s="56">
-        <v>44316</v>
+        <v>44651</v>
       </c>
       <c r="V12" s="33"/>
     </row>
-    <row r="13" ht="270.75" customHeight="1" spans="1:22">
-      <c r="A13" s="63">
-        <f>A12+0.8</f>
+    <row r="13" ht="270" customHeight="1" spans="1:22">
+      <c r="A13" s="28">
+        <f>A11+0.9</f>
         <v>3</v>
       </c>
-      <c r="B13" s="65" t="s">
+      <c r="B13" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="28">
-        <v>10</v>
-      </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="31"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="36"/>
+      <c r="C13" s="59">
+        <v>4</v>
+      </c>
+      <c r="D13" s="60"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="36" t="s">
+        <v>38</v>
+      </c>
       <c r="J13" s="37" t="s">
         <v>38</v>
       </c>
@@ -4168,51 +4119,47 @@
       <c r="L13" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="M13" s="30"/>
-      <c r="N13" s="31"/>
-      <c r="O13" s="32"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="53" t="s">
+      <c r="M13" s="61"/>
+      <c r="N13" s="62"/>
+      <c r="O13" s="63"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="R13" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="R13" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="S13" s="54">
-        <v>43556</v>
+      <c r="S13" s="56">
+        <v>43709</v>
       </c>
       <c r="T13" s="55" t="str">
         <f t="shared" si="0"/>
         <v>
 ～
-(5ヶ月)</v>
+(17ヶ月)</v>
       </c>
       <c r="U13" s="56">
-        <v>43708</v>
+        <v>44227</v>
       </c>
       <c r="V13" s="33"/>
     </row>
-    <row r="14" ht="270.75" customHeight="1" spans="1:22">
-      <c r="A14" s="63">
-        <f>A13+1.1</f>
-        <v>4.1</v>
+    <row r="14" ht="285" customHeight="1" spans="1:22">
+      <c r="A14" s="57">
+        <f>A13+1</f>
+        <v>4</v>
       </c>
       <c r="B14" s="65" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="28">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" s="29"/>
       <c r="E14" s="30"/>
       <c r="F14" s="31"/>
       <c r="G14" s="32"/>
-      <c r="H14" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="I14" s="36" t="s">
-        <v>38</v>
-      </c>
+      <c r="H14" s="30"/>
+      <c r="I14" s="36"/>
       <c r="J14" s="37" t="s">
         <v>38</v>
       </c>
@@ -4227,42 +4174,46 @@
       <c r="O14" s="32"/>
       <c r="P14" s="30"/>
       <c r="Q14" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="R14" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="R14" s="53" t="s">
-        <v>52</v>
-      </c>
       <c r="S14" s="54">
-        <v>43313</v>
+        <v>43556</v>
       </c>
       <c r="T14" s="55" t="str">
         <f t="shared" si="0"/>
         <v>
 ～
-(8ヶ月)</v>
+(5ヶ月)</v>
       </c>
       <c r="U14" s="56">
-        <v>43555</v>
+        <v>43708</v>
       </c>
       <c r="V14" s="33"/>
     </row>
-    <row r="15" ht="213" customHeight="1" spans="1:22">
-      <c r="A15" s="63">
-        <f>A13+1.2</f>
-        <v>4.2</v>
+    <row r="15" ht="290" customHeight="1" spans="1:22">
+      <c r="A15" s="57">
+        <f>A14+1.1</f>
+        <v>5.1</v>
       </c>
       <c r="B15" s="65" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" s="28">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D15" s="29"/>
       <c r="E15" s="30"/>
       <c r="F15" s="31"/>
       <c r="G15" s="32"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="36"/>
+      <c r="H15" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="36" t="s">
+        <v>38</v>
+      </c>
       <c r="J15" s="37" t="s">
         <v>38</v>
       </c>
@@ -4277,35 +4228,35 @@
       <c r="O15" s="32"/>
       <c r="P15" s="30"/>
       <c r="Q15" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="R15" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="R15" s="53" t="s">
-        <v>55</v>
-      </c>
       <c r="S15" s="54">
-        <v>43221</v>
+        <v>43313</v>
       </c>
       <c r="T15" s="55" t="str">
         <f t="shared" si="0"/>
         <v>
 ～
-(3ヶ月)</v>
+(8ヶ月)</v>
       </c>
       <c r="U15" s="56">
-        <v>43282</v>
+        <v>43555</v>
       </c>
       <c r="V15" s="33"/>
     </row>
-    <row r="16" ht="180" customHeight="1" spans="1:22">
-      <c r="A16" s="63">
-        <f>A13+2</f>
-        <v>5</v>
+    <row r="16" ht="209" customHeight="1" spans="1:22">
+      <c r="A16" s="57">
+        <f>A14+1.2</f>
+        <v>5.2</v>
       </c>
       <c r="B16" s="65" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" s="28">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D16" s="29"/>
       <c r="E16" s="30"/>
@@ -4319,101 +4270,103 @@
       <c r="K16" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="L16" s="39"/>
+      <c r="L16" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="M16" s="30"/>
       <c r="N16" s="31"/>
       <c r="O16" s="32"/>
       <c r="P16" s="30"/>
       <c r="Q16" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="R16" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="R16" s="53" t="s">
-        <v>58</v>
-      </c>
       <c r="S16" s="54">
-        <v>43160</v>
+        <v>43221</v>
       </c>
       <c r="T16" s="55" t="str">
-        <f>""&amp;CHAR(10)&amp;""&amp;CHAR(10)&amp;""&amp;CHAR(10)&amp;"～"&amp;CHAR(10)&amp;IF(OR(S16="",U16=""),"","("&amp;DATEDIF(S16,U16,"M")+1&amp;"ヶ月)")</f>
+        <f t="shared" si="0"/>
         <v>
 ～
-(2ヶ月)</v>
+(3ヶ月)</v>
       </c>
       <c r="U16" s="56">
-        <v>43191</v>
+        <v>43282</v>
       </c>
       <c r="V16" s="33"/>
     </row>
-    <row r="17" ht="153" customHeight="1" spans="1:22">
-      <c r="A17" s="63">
-        <f>A16+1</f>
+    <row r="17" ht="127.5" customHeight="1" spans="1:22">
+      <c r="A17" s="57">
+        <f>A14+2</f>
         <v>6</v>
       </c>
       <c r="B17" s="65" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C17" s="28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" s="29"/>
       <c r="E17" s="30"/>
       <c r="F17" s="31"/>
       <c r="G17" s="32"/>
       <c r="H17" s="30"/>
-      <c r="I17" s="36" t="s">
-        <v>38</v>
-      </c>
+      <c r="I17" s="36"/>
       <c r="J17" s="37" t="s">
         <v>38</v>
       </c>
       <c r="K17" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="L17" s="39" t="s">
-        <v>38</v>
-      </c>
+      <c r="L17" s="39"/>
       <c r="M17" s="30"/>
       <c r="N17" s="31"/>
       <c r="O17" s="32"/>
       <c r="P17" s="30"/>
       <c r="Q17" s="53" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="R17" s="53" t="s">
         <v>60</v>
       </c>
       <c r="S17" s="54">
-        <v>43070</v>
+        <v>43160</v>
       </c>
       <c r="T17" s="55" t="str">
-        <f t="shared" ref="T17:T25" si="1">""&amp;CHAR(10)&amp;"～"&amp;CHAR(10)&amp;IF(OR(S17="",U17=""),"","("&amp;DATEDIF(S17,U17,"M")+1&amp;"ヶ月)")</f>
+        <f>""&amp;CHAR(10)&amp;""&amp;CHAR(10)&amp;""&amp;CHAR(10)&amp;"～"&amp;CHAR(10)&amp;IF(OR(S17="",U17=""),"","("&amp;DATEDIF(S17,U17,"M")+1&amp;"ヶ月)")</f>
         <v>
 ～
-(3ヶ月)</v>
+(2ヶ月)</v>
       </c>
       <c r="U17" s="56">
-        <v>43132</v>
+        <v>43191</v>
       </c>
       <c r="V17" s="33"/>
     </row>
-    <row r="18" ht="145.5" customHeight="1" spans="1:22">
-      <c r="A18" s="63">
-        <f>A17+1.1</f>
-        <v>7.1</v>
+    <row r="18" ht="115.5" customHeight="1" spans="1:22">
+      <c r="A18" s="57">
+        <f>A17+1</f>
+        <v>7</v>
       </c>
       <c r="B18" s="65" t="s">
         <v>61</v>
       </c>
       <c r="C18" s="28">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D18" s="29"/>
       <c r="E18" s="30"/>
       <c r="F18" s="31"/>
       <c r="G18" s="32"/>
       <c r="H18" s="30"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="37"/>
+      <c r="I18" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18" s="37" t="s">
+        <v>38</v>
+      </c>
       <c r="K18" s="38" t="s">
         <v>38</v>
       </c>
@@ -4425,35 +4378,35 @@
       <c r="O18" s="32"/>
       <c r="P18" s="30"/>
       <c r="Q18" s="53" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="R18" s="53" t="s">
         <v>62</v>
       </c>
       <c r="S18" s="54">
-        <v>43009</v>
+        <v>43070</v>
       </c>
       <c r="T18" s="55" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="T18:T26" si="1">""&amp;CHAR(10)&amp;"～"&amp;CHAR(10)&amp;IF(OR(S18="",U18=""),"","("&amp;DATEDIF(S18,U18,"M")+1&amp;"ヶ月)")</f>
         <v>
 ～
-(2ヶ月)</v>
+(3ヶ月)</v>
       </c>
       <c r="U18" s="56">
-        <v>43040</v>
+        <v>43132</v>
       </c>
       <c r="V18" s="33"/>
     </row>
     <row r="19" ht="123.75" customHeight="1" spans="1:22">
-      <c r="A19" s="63">
-        <f>A17+1.2</f>
-        <v>7.2</v>
+      <c r="A19" s="57">
+        <f>A18+1.1</f>
+        <v>8.1</v>
       </c>
       <c r="B19" s="65" t="s">
         <v>63</v>
       </c>
       <c r="C19" s="28">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D19" s="29"/>
       <c r="E19" s="30"/>
@@ -4461,47 +4414,47 @@
       <c r="G19" s="32"/>
       <c r="H19" s="30"/>
       <c r="I19" s="36"/>
-      <c r="J19" s="37" t="s">
+      <c r="J19" s="37"/>
+      <c r="K19" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="K19" s="38"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="30" t="s">
+      <c r="L19" s="39" t="s">
         <v>38</v>
       </c>
+      <c r="M19" s="30"/>
       <c r="N19" s="31"/>
       <c r="O19" s="32"/>
       <c r="P19" s="30"/>
       <c r="Q19" s="53" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="R19" s="53" t="s">
         <v>64</v>
       </c>
       <c r="S19" s="54">
-        <v>42856</v>
+        <v>43009</v>
       </c>
       <c r="T19" s="55" t="str">
         <f t="shared" si="1"/>
         <v>
 ～
-(5ヶ月)</v>
+(2ヶ月)</v>
       </c>
       <c r="U19" s="56">
-        <v>42979</v>
+        <v>43040</v>
       </c>
       <c r="V19" s="33"/>
     </row>
     <row r="20" ht="159.75" customHeight="1" spans="1:22">
-      <c r="A20" s="63">
-        <f>A17+2</f>
-        <v>8</v>
+      <c r="A20" s="57">
+        <f>A18+1.2</f>
+        <v>8.2</v>
       </c>
       <c r="B20" s="65" t="s">
         <v>65</v>
       </c>
       <c r="C20" s="28">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D20" s="29"/>
       <c r="E20" s="30"/>
@@ -4512,55 +4465,51 @@
       <c r="J20" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="K20" s="38" t="s">
+      <c r="K20" s="38"/>
+      <c r="L20" s="39"/>
+      <c r="M20" s="30" t="s">
         <v>38</v>
       </c>
-      <c r="L20" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="M20" s="30"/>
       <c r="N20" s="31"/>
       <c r="O20" s="32"/>
       <c r="P20" s="30"/>
       <c r="Q20" s="53" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="R20" s="53" t="s">
         <v>66</v>
       </c>
       <c r="S20" s="54">
-        <v>42736</v>
+        <v>42856</v>
       </c>
       <c r="T20" s="55" t="str">
         <f t="shared" si="1"/>
         <v>
 ～
-(4ヶ月)</v>
+(5ヶ月)</v>
       </c>
       <c r="U20" s="56">
-        <v>42826</v>
+        <v>42979</v>
       </c>
       <c r="V20" s="33"/>
     </row>
     <row r="21" ht="116.25" customHeight="1" spans="1:22">
-      <c r="A21" s="63">
-        <f>A20+1</f>
+      <c r="A21" s="57">
+        <f>A18+2</f>
         <v>9</v>
       </c>
       <c r="B21" s="65" t="s">
         <v>67</v>
       </c>
       <c r="C21" s="28">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D21" s="29"/>
       <c r="E21" s="30"/>
       <c r="F21" s="31"/>
       <c r="G21" s="32"/>
       <c r="H21" s="30"/>
-      <c r="I21" s="36" t="s">
-        <v>38</v>
-      </c>
+      <c r="I21" s="36"/>
       <c r="J21" s="37" t="s">
         <v>38</v>
       </c>
@@ -4575,42 +4524,44 @@
       <c r="O21" s="32"/>
       <c r="P21" s="30"/>
       <c r="Q21" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="R21" s="53" t="s">
         <v>68</v>
       </c>
-      <c r="R21" s="53" t="s">
-        <v>69</v>
-      </c>
       <c r="S21" s="54">
-        <v>42644</v>
+        <v>42736</v>
       </c>
       <c r="T21" s="55" t="str">
         <f t="shared" si="1"/>
         <v>
 ～
-(3ヶ月)</v>
+(4ヶ月)</v>
       </c>
       <c r="U21" s="56">
-        <v>42705</v>
+        <v>42826</v>
       </c>
       <c r="V21" s="33"/>
     </row>
-    <row r="22" ht="141.75" customHeight="1" spans="1:22">
-      <c r="A22" s="26">
-        <f t="shared" ref="A22:A25" si="2">$A21+1</f>
+    <row r="22" ht="96" customHeight="1" spans="1:22">
+      <c r="A22" s="57">
+        <f>A21+1</f>
         <v>10</v>
       </c>
       <c r="B22" s="65" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C22" s="28">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D22" s="29"/>
       <c r="E22" s="30"/>
       <c r="F22" s="31"/>
       <c r="G22" s="32"/>
       <c r="H22" s="30"/>
-      <c r="I22" s="36"/>
+      <c r="I22" s="36" t="s">
+        <v>38</v>
+      </c>
       <c r="J22" s="37" t="s">
         <v>38</v>
       </c>
@@ -4625,61 +4576,73 @@
       <c r="O22" s="32"/>
       <c r="P22" s="30"/>
       <c r="Q22" s="53" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="R22" s="53" t="s">
         <v>71</v>
       </c>
       <c r="S22" s="54">
-        <v>42461</v>
+        <v>42644</v>
       </c>
       <c r="T22" s="55" t="str">
         <f t="shared" si="1"/>
         <v>
 ～
-(6ヶ月)</v>
+(3ヶ月)</v>
       </c>
       <c r="U22" s="56">
-        <v>42614</v>
+        <v>42705</v>
       </c>
       <c r="V22" s="33"/>
     </row>
-    <row r="23" ht="13.5" customHeight="1" spans="1:22">
+    <row r="23" ht="135.75" customHeight="1" spans="1:22">
       <c r="A23" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="A23:A26" si="2">$A22+1</f>
         <v>11</v>
       </c>
       <c r="B23" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="28"/>
+      <c r="C23" s="28">
+        <v>12</v>
+      </c>
       <c r="D23" s="29"/>
       <c r="E23" s="30"/>
       <c r="F23" s="31"/>
       <c r="G23" s="32"/>
       <c r="H23" s="30"/>
       <c r="I23" s="36"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="39"/>
+      <c r="J23" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="K23" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="L23" s="39" t="s">
+        <v>38</v>
+      </c>
       <c r="M23" s="30"/>
       <c r="N23" s="31"/>
       <c r="O23" s="32"/>
       <c r="P23" s="30"/>
       <c r="Q23" s="53" t="s">
+        <v>50</v>
+      </c>
+      <c r="R23" s="53" t="s">
         <v>73</v>
       </c>
-      <c r="R23" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="S23" s="54"/>
+      <c r="S23" s="54">
+        <v>42461</v>
+      </c>
       <c r="T23" s="55" t="str">
         <f t="shared" si="1"/>
         <v>
 ～
-</v>
-      </c>
-      <c r="U23" s="56"/>
+(6ヶ月)</v>
+      </c>
+      <c r="U23" s="56">
+        <v>42614</v>
+      </c>
       <c r="V23" s="33"/>
     </row>
     <row r="24" ht="13.5" customHeight="1" spans="1:22">
@@ -4688,7 +4651,7 @@
         <v>12</v>
       </c>
       <c r="B24" s="65" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C24" s="28"/>
       <c r="D24" s="29"/>
@@ -4705,10 +4668,10 @@
       <c r="O24" s="32"/>
       <c r="P24" s="30"/>
       <c r="Q24" s="53" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R24" s="53" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S24" s="54"/>
       <c r="T24" s="55" t="str">
@@ -4726,7 +4689,7 @@
         <v>13</v>
       </c>
       <c r="B25" s="65" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C25" s="28"/>
       <c r="D25" s="29"/>
@@ -4743,10 +4706,10 @@
       <c r="O25" s="32"/>
       <c r="P25" s="30"/>
       <c r="Q25" s="53" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R25" s="53" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S25" s="54"/>
       <c r="T25" s="55" t="str">
@@ -4759,27 +4722,41 @@
       <c r="V25" s="33"/>
     </row>
     <row r="26" ht="13.5" customHeight="1" spans="1:22">
-      <c r="A26" s="1"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="33"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="33"/>
-      <c r="L26" s="33"/>
-      <c r="M26" s="33"/>
-      <c r="N26" s="33"/>
-      <c r="O26" s="33"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="33"/>
-      <c r="S26" s="33"/>
-      <c r="T26" s="33"/>
-      <c r="U26" s="33"/>
+      <c r="A26" s="26">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="B26" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="28"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="37"/>
+      <c r="K26" s="38"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="31"/>
+      <c r="O26" s="32"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="R26" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="S26" s="54"/>
+      <c r="T26" s="55" t="str">
+        <f t="shared" si="1"/>
+        <v>
+～
+</v>
+      </c>
+      <c r="U26" s="56"/>
       <c r="V26" s="33"/>
     </row>
     <row r="27" ht="13.5" customHeight="1" spans="1:22">
@@ -5166,8 +5143,28 @@
       <c r="U42" s="33"/>
       <c r="V42" s="33"/>
     </row>
-    <row r="43" ht="13.5" customHeight="1" spans="1:1">
+    <row r="43" ht="13.5" customHeight="1" spans="1:21">
       <c r="A43" s="1"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="33"/>
+      <c r="L43" s="33"/>
+      <c r="M43" s="33"/>
+      <c r="N43" s="33"/>
+      <c r="O43" s="33"/>
+      <c r="P43" s="33"/>
+      <c r="Q43" s="33"/>
+      <c r="R43" s="33"/>
+      <c r="S43" s="33"/>
+      <c r="T43" s="33"/>
+      <c r="U43" s="33"/>
     </row>
     <row r="44" ht="13.5" customHeight="1" spans="1:1">
       <c r="A44" s="1"/>
@@ -5718,2334 +5715,780 @@
     <row r="226" ht="13.5" customHeight="1" spans="1:1">
       <c r="A226" s="1"/>
     </row>
-    <row r="227" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A227" s="1"/>
-    </row>
-    <row r="228" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A228" s="1"/>
-    </row>
-    <row r="229" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A229" s="1"/>
-    </row>
-    <row r="230" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A230" s="1"/>
-    </row>
-    <row r="231" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A231" s="1"/>
-    </row>
-    <row r="232" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A232" s="1"/>
-    </row>
-    <row r="233" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A233" s="1"/>
-    </row>
-    <row r="234" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A234" s="1"/>
-    </row>
-    <row r="235" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A235" s="1"/>
-    </row>
-    <row r="236" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A236" s="1"/>
-    </row>
-    <row r="237" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A237" s="1"/>
-    </row>
-    <row r="238" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A238" s="1"/>
-    </row>
-    <row r="239" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A239" s="1"/>
-    </row>
-    <row r="240" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A240" s="1"/>
-    </row>
-    <row r="241" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A241" s="1"/>
-    </row>
-    <row r="242" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A242" s="1"/>
-    </row>
-    <row r="243" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A243" s="1"/>
-    </row>
-    <row r="244" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A244" s="1"/>
-    </row>
-    <row r="245" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A245" s="1"/>
-    </row>
-    <row r="246" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A246" s="1"/>
-    </row>
-    <row r="247" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A247" s="1"/>
-    </row>
-    <row r="248" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A248" s="1"/>
-    </row>
-    <row r="249" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A249" s="1"/>
-    </row>
-    <row r="250" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A250" s="1"/>
-    </row>
-    <row r="251" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A251" s="1"/>
-    </row>
-    <row r="252" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A252" s="1"/>
-    </row>
-    <row r="253" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A253" s="1"/>
-    </row>
-    <row r="254" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A254" s="1"/>
-    </row>
-    <row r="255" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A255" s="1"/>
-    </row>
-    <row r="256" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A256" s="1"/>
-    </row>
-    <row r="257" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A257" s="1"/>
-    </row>
-    <row r="258" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A258" s="1"/>
-    </row>
-    <row r="259" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A259" s="1"/>
-    </row>
-    <row r="260" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A260" s="1"/>
-    </row>
-    <row r="261" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A261" s="1"/>
-    </row>
-    <row r="262" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A262" s="1"/>
-    </row>
-    <row r="263" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A263" s="1"/>
-    </row>
-    <row r="264" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A264" s="1"/>
-    </row>
-    <row r="265" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A265" s="1"/>
-    </row>
-    <row r="266" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A266" s="1"/>
-    </row>
-    <row r="267" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A267" s="1"/>
-    </row>
-    <row r="268" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A268" s="1"/>
-    </row>
-    <row r="269" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A269" s="1"/>
-    </row>
-    <row r="270" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A270" s="1"/>
-    </row>
-    <row r="271" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A271" s="1"/>
-    </row>
-    <row r="272" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A272" s="1"/>
-    </row>
-    <row r="273" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A273" s="1"/>
-    </row>
-    <row r="274" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A274" s="1"/>
-    </row>
-    <row r="275" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A275" s="1"/>
-    </row>
-    <row r="276" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A276" s="1"/>
-    </row>
-    <row r="277" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A277" s="1"/>
-    </row>
-    <row r="278" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A278" s="1"/>
-    </row>
-    <row r="279" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A279" s="1"/>
-    </row>
-    <row r="280" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A280" s="1"/>
-    </row>
-    <row r="281" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A281" s="1"/>
-    </row>
-    <row r="282" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A282" s="1"/>
-    </row>
-    <row r="283" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A283" s="1"/>
-    </row>
-    <row r="284" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A284" s="1"/>
-    </row>
-    <row r="285" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A285" s="1"/>
-    </row>
-    <row r="286" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A286" s="1"/>
-    </row>
-    <row r="287" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A287" s="1"/>
-    </row>
-    <row r="288" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A288" s="1"/>
-    </row>
-    <row r="289" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A289" s="1"/>
-    </row>
-    <row r="290" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A290" s="1"/>
-    </row>
-    <row r="291" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A291" s="1"/>
-    </row>
-    <row r="292" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A292" s="1"/>
-    </row>
-    <row r="293" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A293" s="1"/>
-    </row>
-    <row r="294" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A294" s="1"/>
-    </row>
-    <row r="295" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A295" s="1"/>
-    </row>
-    <row r="296" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A296" s="1"/>
-    </row>
-    <row r="297" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A297" s="1"/>
-    </row>
-    <row r="298" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A298" s="1"/>
-    </row>
-    <row r="299" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A299" s="1"/>
-    </row>
-    <row r="300" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A300" s="1"/>
-    </row>
-    <row r="301" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A301" s="1"/>
-    </row>
-    <row r="302" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A302" s="1"/>
-    </row>
-    <row r="303" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A303" s="1"/>
-    </row>
-    <row r="304" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A304" s="1"/>
-    </row>
-    <row r="305" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A305" s="1"/>
-    </row>
-    <row r="306" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A306" s="1"/>
-    </row>
-    <row r="307" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A307" s="1"/>
-    </row>
-    <row r="308" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A308" s="1"/>
-    </row>
-    <row r="309" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A309" s="1"/>
-    </row>
-    <row r="310" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A310" s="1"/>
-    </row>
-    <row r="311" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A311" s="1"/>
-    </row>
-    <row r="312" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A312" s="1"/>
-    </row>
-    <row r="313" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A313" s="1"/>
-    </row>
-    <row r="314" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A314" s="1"/>
-    </row>
-    <row r="315" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A315" s="1"/>
-    </row>
-    <row r="316" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A316" s="1"/>
-    </row>
-    <row r="317" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A317" s="1"/>
-    </row>
-    <row r="318" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A318" s="1"/>
-    </row>
-    <row r="319" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A319" s="1"/>
-    </row>
-    <row r="320" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A320" s="1"/>
-    </row>
-    <row r="321" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A321" s="1"/>
-    </row>
-    <row r="322" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A322" s="1"/>
-    </row>
-    <row r="323" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A323" s="1"/>
-    </row>
-    <row r="324" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A324" s="1"/>
-    </row>
-    <row r="325" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A325" s="1"/>
-    </row>
-    <row r="326" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A326" s="1"/>
-    </row>
-    <row r="327" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A327" s="1"/>
-    </row>
-    <row r="328" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A328" s="1"/>
-    </row>
-    <row r="329" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A329" s="1"/>
-    </row>
-    <row r="330" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A330" s="1"/>
-    </row>
-    <row r="331" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A331" s="1"/>
-    </row>
-    <row r="332" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A332" s="1"/>
-    </row>
-    <row r="333" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A333" s="1"/>
-    </row>
-    <row r="334" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A334" s="1"/>
-    </row>
-    <row r="335" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A335" s="1"/>
-    </row>
-    <row r="336" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A336" s="1"/>
-    </row>
-    <row r="337" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A337" s="1"/>
-    </row>
-    <row r="338" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A338" s="1"/>
-    </row>
-    <row r="339" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A339" s="1"/>
-    </row>
-    <row r="340" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A340" s="1"/>
-    </row>
-    <row r="341" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A341" s="1"/>
-    </row>
-    <row r="342" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A342" s="1"/>
-    </row>
-    <row r="343" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A343" s="1"/>
-    </row>
-    <row r="344" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A344" s="1"/>
-    </row>
-    <row r="345" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A345" s="1"/>
-    </row>
-    <row r="346" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A346" s="1"/>
-    </row>
-    <row r="347" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A347" s="1"/>
-    </row>
-    <row r="348" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A348" s="1"/>
-    </row>
-    <row r="349" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A349" s="1"/>
-    </row>
-    <row r="350" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A350" s="1"/>
-    </row>
-    <row r="351" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A351" s="1"/>
-    </row>
-    <row r="352" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A352" s="1"/>
-    </row>
-    <row r="353" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A353" s="1"/>
-    </row>
-    <row r="354" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A354" s="1"/>
-    </row>
-    <row r="355" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A355" s="1"/>
-    </row>
-    <row r="356" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A356" s="1"/>
-    </row>
-    <row r="357" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A357" s="1"/>
-    </row>
-    <row r="358" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A358" s="1"/>
-    </row>
-    <row r="359" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A359" s="1"/>
-    </row>
-    <row r="360" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A360" s="1"/>
-    </row>
-    <row r="361" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A361" s="1"/>
-    </row>
-    <row r="362" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A362" s="1"/>
-    </row>
-    <row r="363" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A363" s="1"/>
-    </row>
-    <row r="364" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A364" s="1"/>
-    </row>
-    <row r="365" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A365" s="1"/>
-    </row>
-    <row r="366" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A366" s="1"/>
-    </row>
-    <row r="367" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A367" s="1"/>
-    </row>
-    <row r="368" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A368" s="1"/>
-    </row>
-    <row r="369" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A369" s="1"/>
-    </row>
-    <row r="370" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A370" s="1"/>
-    </row>
-    <row r="371" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A371" s="1"/>
-    </row>
-    <row r="372" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A372" s="1"/>
-    </row>
-    <row r="373" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A373" s="1"/>
-    </row>
-    <row r="374" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A374" s="1"/>
-    </row>
-    <row r="375" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A375" s="1"/>
-    </row>
-    <row r="376" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A376" s="1"/>
-    </row>
-    <row r="377" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A377" s="1"/>
-    </row>
-    <row r="378" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A378" s="1"/>
-    </row>
-    <row r="379" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A379" s="1"/>
-    </row>
-    <row r="380" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A380" s="1"/>
-    </row>
-    <row r="381" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A381" s="1"/>
-    </row>
-    <row r="382" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A382" s="1"/>
-    </row>
-    <row r="383" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A383" s="1"/>
-    </row>
-    <row r="384" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A384" s="1"/>
-    </row>
-    <row r="385" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A385" s="1"/>
-    </row>
-    <row r="386" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A386" s="1"/>
-    </row>
-    <row r="387" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A387" s="1"/>
-    </row>
-    <row r="388" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A388" s="1"/>
-    </row>
-    <row r="389" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A389" s="1"/>
-    </row>
-    <row r="390" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A390" s="1"/>
-    </row>
-    <row r="391" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A391" s="1"/>
-    </row>
-    <row r="392" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A392" s="1"/>
-    </row>
-    <row r="393" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A393" s="1"/>
-    </row>
-    <row r="394" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A394" s="1"/>
-    </row>
-    <row r="395" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A395" s="1"/>
-    </row>
-    <row r="396" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A396" s="1"/>
-    </row>
-    <row r="397" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A397" s="1"/>
-    </row>
-    <row r="398" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A398" s="1"/>
-    </row>
-    <row r="399" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A399" s="1"/>
-    </row>
-    <row r="400" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A400" s="1"/>
-    </row>
-    <row r="401" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A401" s="1"/>
-    </row>
-    <row r="402" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A402" s="1"/>
-    </row>
-    <row r="403" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A403" s="1"/>
-    </row>
-    <row r="404" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A404" s="1"/>
-    </row>
-    <row r="405" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A405" s="1"/>
-    </row>
-    <row r="406" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A406" s="1"/>
-    </row>
-    <row r="407" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A407" s="1"/>
-    </row>
-    <row r="408" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A408" s="1"/>
-    </row>
-    <row r="409" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A409" s="1"/>
-    </row>
-    <row r="410" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A410" s="1"/>
-    </row>
-    <row r="411" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A411" s="1"/>
-    </row>
-    <row r="412" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A412" s="1"/>
-    </row>
-    <row r="413" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A413" s="1"/>
-    </row>
-    <row r="414" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A414" s="1"/>
-    </row>
-    <row r="415" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A415" s="1"/>
-    </row>
-    <row r="416" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A416" s="1"/>
-    </row>
-    <row r="417" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A417" s="1"/>
-    </row>
-    <row r="418" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A418" s="1"/>
-    </row>
-    <row r="419" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A419" s="1"/>
-    </row>
-    <row r="420" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A420" s="1"/>
-    </row>
-    <row r="421" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A421" s="1"/>
-    </row>
-    <row r="422" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A422" s="1"/>
-    </row>
-    <row r="423" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A423" s="1"/>
-    </row>
-    <row r="424" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A424" s="1"/>
-    </row>
-    <row r="425" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A425" s="1"/>
-    </row>
-    <row r="426" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A426" s="1"/>
-    </row>
-    <row r="427" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A427" s="1"/>
-    </row>
-    <row r="428" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A428" s="1"/>
-    </row>
-    <row r="429" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A429" s="1"/>
-    </row>
-    <row r="430" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A430" s="1"/>
-    </row>
-    <row r="431" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A431" s="1"/>
-    </row>
-    <row r="432" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A432" s="1"/>
-    </row>
-    <row r="433" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A433" s="1"/>
-    </row>
-    <row r="434" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A434" s="1"/>
-    </row>
-    <row r="435" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A435" s="1"/>
-    </row>
-    <row r="436" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A436" s="1"/>
-    </row>
-    <row r="437" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A437" s="1"/>
-    </row>
-    <row r="438" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A438" s="1"/>
-    </row>
-    <row r="439" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A439" s="1"/>
-    </row>
-    <row r="440" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A440" s="1"/>
-    </row>
-    <row r="441" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A441" s="1"/>
-    </row>
-    <row r="442" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A442" s="1"/>
-    </row>
-    <row r="443" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A443" s="1"/>
-    </row>
-    <row r="444" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A444" s="1"/>
-    </row>
-    <row r="445" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A445" s="1"/>
-    </row>
-    <row r="446" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A446" s="1"/>
-    </row>
-    <row r="447" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A447" s="1"/>
-    </row>
-    <row r="448" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A448" s="1"/>
-    </row>
-    <row r="449" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A449" s="1"/>
-    </row>
-    <row r="450" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A450" s="1"/>
-    </row>
-    <row r="451" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A451" s="1"/>
-    </row>
-    <row r="452" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A452" s="1"/>
-    </row>
-    <row r="453" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A453" s="1"/>
-    </row>
-    <row r="454" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A454" s="1"/>
-    </row>
-    <row r="455" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A455" s="1"/>
-    </row>
-    <row r="456" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A456" s="1"/>
-    </row>
-    <row r="457" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A457" s="1"/>
-    </row>
-    <row r="458" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A458" s="1"/>
-    </row>
-    <row r="459" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A459" s="1"/>
-    </row>
-    <row r="460" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A460" s="1"/>
-    </row>
-    <row r="461" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A461" s="1"/>
-    </row>
-    <row r="462" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A462" s="1"/>
-    </row>
-    <row r="463" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A463" s="1"/>
-    </row>
-    <row r="464" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A464" s="1"/>
-    </row>
-    <row r="465" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A465" s="1"/>
-    </row>
-    <row r="466" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A466" s="1"/>
-    </row>
-    <row r="467" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A467" s="1"/>
-    </row>
-    <row r="468" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A468" s="1"/>
-    </row>
-    <row r="469" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A469" s="1"/>
-    </row>
-    <row r="470" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A470" s="1"/>
-    </row>
-    <row r="471" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A471" s="1"/>
-    </row>
-    <row r="472" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A472" s="1"/>
-    </row>
-    <row r="473" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A473" s="1"/>
-    </row>
-    <row r="474" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A474" s="1"/>
-    </row>
-    <row r="475" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A475" s="1"/>
-    </row>
-    <row r="476" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A476" s="1"/>
-    </row>
-    <row r="477" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A477" s="1"/>
-    </row>
-    <row r="478" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A478" s="1"/>
-    </row>
-    <row r="479" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A479" s="1"/>
-    </row>
-    <row r="480" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A480" s="1"/>
-    </row>
-    <row r="481" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A481" s="1"/>
-    </row>
-    <row r="482" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A482" s="1"/>
-    </row>
-    <row r="483" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A483" s="1"/>
-    </row>
-    <row r="484" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A484" s="1"/>
-    </row>
-    <row r="485" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A485" s="1"/>
-    </row>
-    <row r="486" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A486" s="1"/>
-    </row>
-    <row r="487" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A487" s="1"/>
-    </row>
-    <row r="488" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A488" s="1"/>
-    </row>
-    <row r="489" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A489" s="1"/>
-    </row>
-    <row r="490" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A490" s="1"/>
-    </row>
-    <row r="491" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A491" s="1"/>
-    </row>
-    <row r="492" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A492" s="1"/>
-    </row>
-    <row r="493" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A493" s="1"/>
-    </row>
-    <row r="494" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A494" s="1"/>
-    </row>
-    <row r="495" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A495" s="1"/>
-    </row>
-    <row r="496" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A496" s="1"/>
-    </row>
-    <row r="497" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A497" s="1"/>
-    </row>
-    <row r="498" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A498" s="1"/>
-    </row>
-    <row r="499" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A499" s="1"/>
-    </row>
-    <row r="500" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A500" s="1"/>
-    </row>
-    <row r="501" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A501" s="1"/>
-    </row>
-    <row r="502" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A502" s="1"/>
-    </row>
-    <row r="503" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A503" s="1"/>
-    </row>
-    <row r="504" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A504" s="1"/>
-    </row>
-    <row r="505" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A505" s="1"/>
-    </row>
-    <row r="506" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A506" s="1"/>
-    </row>
-    <row r="507" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A507" s="1"/>
-    </row>
-    <row r="508" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A508" s="1"/>
-    </row>
-    <row r="509" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A509" s="1"/>
-    </row>
-    <row r="510" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A510" s="1"/>
-    </row>
-    <row r="511" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A511" s="1"/>
-    </row>
-    <row r="512" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A512" s="1"/>
-    </row>
-    <row r="513" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A513" s="1"/>
-    </row>
-    <row r="514" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A514" s="1"/>
-    </row>
-    <row r="515" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A515" s="1"/>
-    </row>
-    <row r="516" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A516" s="1"/>
-    </row>
-    <row r="517" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A517" s="1"/>
-    </row>
-    <row r="518" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A518" s="1"/>
-    </row>
-    <row r="519" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A519" s="1"/>
-    </row>
-    <row r="520" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A520" s="1"/>
-    </row>
-    <row r="521" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A521" s="1"/>
-    </row>
-    <row r="522" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A522" s="1"/>
-    </row>
-    <row r="523" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A523" s="1"/>
-    </row>
-    <row r="524" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A524" s="1"/>
-    </row>
-    <row r="525" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A525" s="1"/>
-    </row>
-    <row r="526" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A526" s="1"/>
-    </row>
-    <row r="527" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A527" s="1"/>
-    </row>
-    <row r="528" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A528" s="1"/>
-    </row>
-    <row r="529" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A529" s="1"/>
-    </row>
-    <row r="530" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A530" s="1"/>
-    </row>
-    <row r="531" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A531" s="1"/>
-    </row>
-    <row r="532" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A532" s="1"/>
-    </row>
-    <row r="533" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A533" s="1"/>
-    </row>
-    <row r="534" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A534" s="1"/>
-    </row>
-    <row r="535" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A535" s="1"/>
-    </row>
-    <row r="536" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A536" s="1"/>
-    </row>
-    <row r="537" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A537" s="1"/>
-    </row>
-    <row r="538" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A538" s="1"/>
-    </row>
-    <row r="539" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A539" s="1"/>
-    </row>
-    <row r="540" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A540" s="1"/>
-    </row>
-    <row r="541" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A541" s="1"/>
-    </row>
-    <row r="542" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A542" s="1"/>
-    </row>
-    <row r="543" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A543" s="1"/>
-    </row>
-    <row r="544" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A544" s="1"/>
-    </row>
-    <row r="545" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A545" s="1"/>
-    </row>
-    <row r="546" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A546" s="1"/>
-    </row>
-    <row r="547" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A547" s="1"/>
-    </row>
-    <row r="548" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A548" s="1"/>
-    </row>
-    <row r="549" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A549" s="1"/>
-    </row>
-    <row r="550" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A550" s="1"/>
-    </row>
-    <row r="551" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A551" s="1"/>
-    </row>
-    <row r="552" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A552" s="1"/>
-    </row>
-    <row r="553" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A553" s="1"/>
-    </row>
-    <row r="554" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A554" s="1"/>
-    </row>
-    <row r="555" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A555" s="1"/>
-    </row>
-    <row r="556" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A556" s="1"/>
-    </row>
-    <row r="557" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A557" s="1"/>
-    </row>
-    <row r="558" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A558" s="1"/>
-    </row>
-    <row r="559" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A559" s="1"/>
-    </row>
-    <row r="560" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A560" s="1"/>
-    </row>
-    <row r="561" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A561" s="1"/>
-    </row>
-    <row r="562" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A562" s="1"/>
-    </row>
-    <row r="563" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A563" s="1"/>
-    </row>
-    <row r="564" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A564" s="1"/>
-    </row>
-    <row r="565" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A565" s="1"/>
-    </row>
-    <row r="566" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A566" s="1"/>
-    </row>
-    <row r="567" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A567" s="1"/>
-    </row>
-    <row r="568" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A568" s="1"/>
-    </row>
-    <row r="569" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A569" s="1"/>
-    </row>
-    <row r="570" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A570" s="1"/>
-    </row>
-    <row r="571" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A571" s="1"/>
-    </row>
-    <row r="572" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A572" s="1"/>
-    </row>
-    <row r="573" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A573" s="1"/>
-    </row>
-    <row r="574" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A574" s="1"/>
-    </row>
-    <row r="575" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A575" s="1"/>
-    </row>
-    <row r="576" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A576" s="1"/>
-    </row>
-    <row r="577" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A577" s="1"/>
-    </row>
-    <row r="578" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A578" s="1"/>
-    </row>
-    <row r="579" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A579" s="1"/>
-    </row>
-    <row r="580" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A580" s="1"/>
-    </row>
-    <row r="581" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A581" s="1"/>
-    </row>
-    <row r="582" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A582" s="1"/>
-    </row>
-    <row r="583" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A583" s="1"/>
-    </row>
-    <row r="584" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A584" s="1"/>
-    </row>
-    <row r="585" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A585" s="1"/>
-    </row>
-    <row r="586" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A586" s="1"/>
-    </row>
-    <row r="587" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A587" s="1"/>
-    </row>
-    <row r="588" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A588" s="1"/>
-    </row>
-    <row r="589" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A589" s="1"/>
-    </row>
-    <row r="590" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A590" s="1"/>
-    </row>
-    <row r="591" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A591" s="1"/>
-    </row>
-    <row r="592" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A592" s="1"/>
-    </row>
-    <row r="593" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A593" s="1"/>
-    </row>
-    <row r="594" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A594" s="1"/>
-    </row>
-    <row r="595" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A595" s="1"/>
-    </row>
-    <row r="596" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A596" s="1"/>
-    </row>
-    <row r="597" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A597" s="1"/>
-    </row>
-    <row r="598" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A598" s="1"/>
-    </row>
-    <row r="599" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A599" s="1"/>
-    </row>
-    <row r="600" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A600" s="1"/>
-    </row>
-    <row r="601" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A601" s="1"/>
-    </row>
-    <row r="602" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A602" s="1"/>
-    </row>
-    <row r="603" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A603" s="1"/>
-    </row>
-    <row r="604" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A604" s="1"/>
-    </row>
-    <row r="605" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A605" s="1"/>
-    </row>
-    <row r="606" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A606" s="1"/>
-    </row>
-    <row r="607" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A607" s="1"/>
-    </row>
-    <row r="608" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A608" s="1"/>
-    </row>
-    <row r="609" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A609" s="1"/>
-    </row>
-    <row r="610" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A610" s="1"/>
-    </row>
-    <row r="611" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A611" s="1"/>
-    </row>
-    <row r="612" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A612" s="1"/>
-    </row>
-    <row r="613" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A613" s="1"/>
-    </row>
-    <row r="614" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A614" s="1"/>
-    </row>
-    <row r="615" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A615" s="1"/>
-    </row>
-    <row r="616" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A616" s="1"/>
-    </row>
-    <row r="617" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A617" s="1"/>
-    </row>
-    <row r="618" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A618" s="1"/>
-    </row>
-    <row r="619" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A619" s="1"/>
-    </row>
-    <row r="620" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A620" s="1"/>
-    </row>
-    <row r="621" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A621" s="1"/>
-    </row>
-    <row r="622" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A622" s="1"/>
-    </row>
-    <row r="623" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A623" s="1"/>
-    </row>
-    <row r="624" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A624" s="1"/>
-    </row>
-    <row r="625" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A625" s="1"/>
-    </row>
-    <row r="626" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A626" s="1"/>
-    </row>
-    <row r="627" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A627" s="1"/>
-    </row>
-    <row r="628" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A628" s="1"/>
-    </row>
-    <row r="629" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A629" s="1"/>
-    </row>
-    <row r="630" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A630" s="1"/>
-    </row>
-    <row r="631" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A631" s="1"/>
-    </row>
-    <row r="632" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A632" s="1"/>
-    </row>
-    <row r="633" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A633" s="1"/>
-    </row>
-    <row r="634" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A634" s="1"/>
-    </row>
-    <row r="635" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A635" s="1"/>
-    </row>
-    <row r="636" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A636" s="1"/>
-    </row>
-    <row r="637" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A637" s="1"/>
-    </row>
-    <row r="638" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A638" s="1"/>
-    </row>
-    <row r="639" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A639" s="1"/>
-    </row>
-    <row r="640" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A640" s="1"/>
-    </row>
-    <row r="641" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A641" s="1"/>
-    </row>
-    <row r="642" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A642" s="1"/>
-    </row>
-    <row r="643" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A643" s="1"/>
-    </row>
-    <row r="644" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A644" s="1"/>
-    </row>
-    <row r="645" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A645" s="1"/>
-    </row>
-    <row r="646" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A646" s="1"/>
-    </row>
-    <row r="647" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A647" s="1"/>
-    </row>
-    <row r="648" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A648" s="1"/>
-    </row>
-    <row r="649" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A649" s="1"/>
-    </row>
-    <row r="650" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A650" s="1"/>
-    </row>
-    <row r="651" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A651" s="1"/>
-    </row>
-    <row r="652" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A652" s="1"/>
-    </row>
-    <row r="653" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A653" s="1"/>
-    </row>
-    <row r="654" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A654" s="1"/>
-    </row>
-    <row r="655" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A655" s="1"/>
-    </row>
-    <row r="656" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A656" s="1"/>
-    </row>
-    <row r="657" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A657" s="1"/>
-    </row>
-    <row r="658" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A658" s="1"/>
-    </row>
-    <row r="659" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A659" s="1"/>
-    </row>
-    <row r="660" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A660" s="1"/>
-    </row>
-    <row r="661" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A661" s="1"/>
-    </row>
-    <row r="662" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A662" s="1"/>
-    </row>
-    <row r="663" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A663" s="1"/>
-    </row>
-    <row r="664" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A664" s="1"/>
-    </row>
-    <row r="665" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A665" s="1"/>
-    </row>
-    <row r="666" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A666" s="1"/>
-    </row>
-    <row r="667" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A667" s="1"/>
-    </row>
-    <row r="668" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A668" s="1"/>
-    </row>
-    <row r="669" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A669" s="1"/>
-    </row>
-    <row r="670" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A670" s="1"/>
-    </row>
-    <row r="671" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A671" s="1"/>
-    </row>
-    <row r="672" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A672" s="1"/>
-    </row>
-    <row r="673" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A673" s="1"/>
-    </row>
-    <row r="674" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A674" s="1"/>
-    </row>
-    <row r="675" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A675" s="1"/>
-    </row>
-    <row r="676" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A676" s="1"/>
-    </row>
-    <row r="677" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A677" s="1"/>
-    </row>
-    <row r="678" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A678" s="1"/>
-    </row>
-    <row r="679" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A679" s="1"/>
-    </row>
-    <row r="680" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A680" s="1"/>
-    </row>
-    <row r="681" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A681" s="1"/>
-    </row>
-    <row r="682" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A682" s="1"/>
-    </row>
-    <row r="683" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A683" s="1"/>
-    </row>
-    <row r="684" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A684" s="1"/>
-    </row>
-    <row r="685" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A685" s="1"/>
-    </row>
-    <row r="686" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A686" s="1"/>
-    </row>
-    <row r="687" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A687" s="1"/>
-    </row>
-    <row r="688" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A688" s="1"/>
-    </row>
-    <row r="689" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A689" s="1"/>
-    </row>
-    <row r="690" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A690" s="1"/>
-    </row>
-    <row r="691" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A691" s="1"/>
-    </row>
-    <row r="692" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A692" s="1"/>
-    </row>
-    <row r="693" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A693" s="1"/>
-    </row>
-    <row r="694" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A694" s="1"/>
-    </row>
-    <row r="695" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A695" s="1"/>
-    </row>
-    <row r="696" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A696" s="1"/>
-    </row>
-    <row r="697" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A697" s="1"/>
-    </row>
-    <row r="698" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A698" s="1"/>
-    </row>
-    <row r="699" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A699" s="1"/>
-    </row>
-    <row r="700" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A700" s="1"/>
-    </row>
-    <row r="701" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A701" s="1"/>
-    </row>
-    <row r="702" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A702" s="1"/>
-    </row>
-    <row r="703" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A703" s="1"/>
-    </row>
-    <row r="704" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A704" s="1"/>
-    </row>
-    <row r="705" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A705" s="1"/>
-    </row>
-    <row r="706" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A706" s="1"/>
-    </row>
-    <row r="707" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A707" s="1"/>
-    </row>
-    <row r="708" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A708" s="1"/>
-    </row>
-    <row r="709" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A709" s="1"/>
-    </row>
-    <row r="710" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A710" s="1"/>
-    </row>
-    <row r="711" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A711" s="1"/>
-    </row>
-    <row r="712" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A712" s="1"/>
-    </row>
-    <row r="713" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A713" s="1"/>
-    </row>
-    <row r="714" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A714" s="1"/>
-    </row>
-    <row r="715" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A715" s="1"/>
-    </row>
-    <row r="716" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A716" s="1"/>
-    </row>
-    <row r="717" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A717" s="1"/>
-    </row>
-    <row r="718" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A718" s="1"/>
-    </row>
-    <row r="719" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A719" s="1"/>
-    </row>
-    <row r="720" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A720" s="1"/>
-    </row>
-    <row r="721" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A721" s="1"/>
-    </row>
-    <row r="722" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A722" s="1"/>
-    </row>
-    <row r="723" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A723" s="1"/>
-    </row>
-    <row r="724" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A724" s="1"/>
-    </row>
-    <row r="725" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A725" s="1"/>
-    </row>
-    <row r="726" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A726" s="1"/>
-    </row>
-    <row r="727" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A727" s="1"/>
-    </row>
-    <row r="728" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A728" s="1"/>
-    </row>
-    <row r="729" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A729" s="1"/>
-    </row>
-    <row r="730" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A730" s="1"/>
-    </row>
-    <row r="731" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A731" s="1"/>
-    </row>
-    <row r="732" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A732" s="1"/>
-    </row>
-    <row r="733" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A733" s="1"/>
-    </row>
-    <row r="734" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A734" s="1"/>
-    </row>
-    <row r="735" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A735" s="1"/>
-    </row>
-    <row r="736" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A736" s="1"/>
-    </row>
-    <row r="737" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A737" s="1"/>
-    </row>
-    <row r="738" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A738" s="1"/>
-    </row>
-    <row r="739" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A739" s="1"/>
-    </row>
-    <row r="740" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A740" s="1"/>
-    </row>
-    <row r="741" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A741" s="1"/>
-    </row>
-    <row r="742" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A742" s="1"/>
-    </row>
-    <row r="743" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A743" s="1"/>
-    </row>
-    <row r="744" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A744" s="1"/>
-    </row>
-    <row r="745" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A745" s="1"/>
-    </row>
-    <row r="746" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A746" s="1"/>
-    </row>
-    <row r="747" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A747" s="1"/>
-    </row>
-    <row r="748" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A748" s="1"/>
-    </row>
-    <row r="749" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A749" s="1"/>
-    </row>
-    <row r="750" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A750" s="1"/>
-    </row>
-    <row r="751" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A751" s="1"/>
-    </row>
-    <row r="752" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A752" s="1"/>
-    </row>
-    <row r="753" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A753" s="1"/>
-    </row>
-    <row r="754" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A754" s="1"/>
-    </row>
-    <row r="755" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A755" s="1"/>
-    </row>
-    <row r="756" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A756" s="1"/>
-    </row>
-    <row r="757" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A757" s="1"/>
-    </row>
-    <row r="758" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A758" s="1"/>
-    </row>
-    <row r="759" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A759" s="1"/>
-    </row>
-    <row r="760" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A760" s="1"/>
-    </row>
-    <row r="761" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A761" s="1"/>
-    </row>
-    <row r="762" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A762" s="1"/>
-    </row>
-    <row r="763" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A763" s="1"/>
-    </row>
-    <row r="764" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A764" s="1"/>
-    </row>
-    <row r="765" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A765" s="1"/>
-    </row>
-    <row r="766" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A766" s="1"/>
-    </row>
-    <row r="767" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A767" s="1"/>
-    </row>
-    <row r="768" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A768" s="1"/>
-    </row>
-    <row r="769" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A769" s="1"/>
-    </row>
-    <row r="770" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A770" s="1"/>
-    </row>
-    <row r="771" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A771" s="1"/>
-    </row>
-    <row r="772" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A772" s="1"/>
-    </row>
-    <row r="773" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A773" s="1"/>
-    </row>
-    <row r="774" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A774" s="1"/>
-    </row>
-    <row r="775" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A775" s="1"/>
-    </row>
-    <row r="776" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A776" s="1"/>
-    </row>
-    <row r="777" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A777" s="1"/>
-    </row>
-    <row r="778" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A778" s="1"/>
-    </row>
-    <row r="779" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A779" s="1"/>
-    </row>
-    <row r="780" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A780" s="1"/>
-    </row>
-    <row r="781" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A781" s="1"/>
-    </row>
-    <row r="782" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A782" s="1"/>
-    </row>
-    <row r="783" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A783" s="1"/>
-    </row>
-    <row r="784" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A784" s="1"/>
-    </row>
-    <row r="785" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A785" s="1"/>
-    </row>
-    <row r="786" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A786" s="1"/>
-    </row>
-    <row r="787" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A787" s="1"/>
-    </row>
-    <row r="788" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A788" s="1"/>
-    </row>
-    <row r="789" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A789" s="1"/>
-    </row>
-    <row r="790" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A790" s="1"/>
-    </row>
-    <row r="791" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A791" s="1"/>
-    </row>
-    <row r="792" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A792" s="1"/>
-    </row>
-    <row r="793" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A793" s="1"/>
-    </row>
-    <row r="794" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A794" s="1"/>
-    </row>
-    <row r="795" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A795" s="1"/>
-    </row>
-    <row r="796" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A796" s="1"/>
-    </row>
-    <row r="797" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A797" s="1"/>
-    </row>
-    <row r="798" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A798" s="1"/>
-    </row>
-    <row r="799" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A799" s="1"/>
-    </row>
-    <row r="800" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A800" s="1"/>
-    </row>
-    <row r="801" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A801" s="1"/>
-    </row>
-    <row r="802" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A802" s="1"/>
-    </row>
-    <row r="803" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A803" s="1"/>
-    </row>
-    <row r="804" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A804" s="1"/>
-    </row>
-    <row r="805" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A805" s="1"/>
-    </row>
-    <row r="806" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A806" s="1"/>
-    </row>
-    <row r="807" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A807" s="1"/>
-    </row>
-    <row r="808" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A808" s="1"/>
-    </row>
-    <row r="809" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A809" s="1"/>
-    </row>
-    <row r="810" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A810" s="1"/>
-    </row>
-    <row r="811" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A811" s="1"/>
-    </row>
-    <row r="812" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A812" s="1"/>
-    </row>
-    <row r="813" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A813" s="1"/>
-    </row>
-    <row r="814" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A814" s="1"/>
-    </row>
-    <row r="815" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A815" s="1"/>
-    </row>
-    <row r="816" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A816" s="1"/>
-    </row>
-    <row r="817" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A817" s="1"/>
-    </row>
-    <row r="818" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A818" s="1"/>
-    </row>
-    <row r="819" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A819" s="1"/>
-    </row>
-    <row r="820" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A820" s="1"/>
-    </row>
-    <row r="821" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A821" s="1"/>
-    </row>
-    <row r="822" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A822" s="1"/>
-    </row>
-    <row r="823" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A823" s="1"/>
-    </row>
-    <row r="824" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A824" s="1"/>
-    </row>
-    <row r="825" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A825" s="1"/>
-    </row>
-    <row r="826" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A826" s="1"/>
-    </row>
-    <row r="827" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A827" s="1"/>
-    </row>
-    <row r="828" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A828" s="1"/>
-    </row>
-    <row r="829" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A829" s="1"/>
-    </row>
-    <row r="830" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A830" s="1"/>
-    </row>
-    <row r="831" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A831" s="1"/>
-    </row>
-    <row r="832" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A832" s="1"/>
-    </row>
-    <row r="833" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A833" s="1"/>
-    </row>
-    <row r="834" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A834" s="1"/>
-    </row>
-    <row r="835" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A835" s="1"/>
-    </row>
-    <row r="836" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A836" s="1"/>
-    </row>
-    <row r="837" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A837" s="1"/>
-    </row>
-    <row r="838" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A838" s="1"/>
-    </row>
-    <row r="839" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A839" s="1"/>
-    </row>
-    <row r="840" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A840" s="1"/>
-    </row>
-    <row r="841" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A841" s="1"/>
-    </row>
-    <row r="842" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A842" s="1"/>
-    </row>
-    <row r="843" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A843" s="1"/>
-    </row>
-    <row r="844" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A844" s="1"/>
-    </row>
-    <row r="845" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A845" s="1"/>
-    </row>
-    <row r="846" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A846" s="1"/>
-    </row>
-    <row r="847" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A847" s="1"/>
-    </row>
-    <row r="848" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A848" s="1"/>
-    </row>
-    <row r="849" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A849" s="1"/>
-    </row>
-    <row r="850" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A850" s="1"/>
-    </row>
-    <row r="851" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A851" s="1"/>
-    </row>
-    <row r="852" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A852" s="1"/>
-    </row>
-    <row r="853" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A853" s="1"/>
-    </row>
-    <row r="854" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A854" s="1"/>
-    </row>
-    <row r="855" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A855" s="1"/>
-    </row>
-    <row r="856" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A856" s="1"/>
-    </row>
-    <row r="857" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A857" s="1"/>
-    </row>
-    <row r="858" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A858" s="1"/>
-    </row>
-    <row r="859" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A859" s="1"/>
-    </row>
-    <row r="860" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A860" s="1"/>
-    </row>
-    <row r="861" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A861" s="1"/>
-    </row>
-    <row r="862" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A862" s="1"/>
-    </row>
-    <row r="863" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A863" s="1"/>
-    </row>
-    <row r="864" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A864" s="1"/>
-    </row>
-    <row r="865" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A865" s="1"/>
-    </row>
-    <row r="866" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A866" s="1"/>
-    </row>
-    <row r="867" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A867" s="1"/>
-    </row>
-    <row r="868" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A868" s="1"/>
-    </row>
-    <row r="869" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A869" s="1"/>
-    </row>
-    <row r="870" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A870" s="1"/>
-    </row>
-    <row r="871" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A871" s="1"/>
-    </row>
-    <row r="872" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A872" s="1"/>
-    </row>
-    <row r="873" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A873" s="1"/>
-    </row>
-    <row r="874" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A874" s="1"/>
-    </row>
-    <row r="875" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A875" s="1"/>
-    </row>
-    <row r="876" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A876" s="1"/>
-    </row>
-    <row r="877" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A877" s="1"/>
-    </row>
-    <row r="878" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A878" s="1"/>
-    </row>
-    <row r="879" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A879" s="1"/>
-    </row>
-    <row r="880" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A880" s="1"/>
-    </row>
-    <row r="881" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A881" s="1"/>
-    </row>
-    <row r="882" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A882" s="1"/>
-    </row>
-    <row r="883" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A883" s="1"/>
-    </row>
-    <row r="884" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A884" s="1"/>
-    </row>
-    <row r="885" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A885" s="1"/>
-    </row>
-    <row r="886" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A886" s="1"/>
-    </row>
-    <row r="887" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A887" s="1"/>
-    </row>
-    <row r="888" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A888" s="1"/>
-    </row>
-    <row r="889" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A889" s="1"/>
-    </row>
-    <row r="890" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A890" s="1"/>
-    </row>
-    <row r="891" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A891" s="1"/>
-    </row>
-    <row r="892" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A892" s="1"/>
-    </row>
-    <row r="893" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A893" s="1"/>
-    </row>
-    <row r="894" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A894" s="1"/>
-    </row>
-    <row r="895" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A895" s="1"/>
-    </row>
-    <row r="896" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A896" s="1"/>
-    </row>
-    <row r="897" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A897" s="1"/>
-    </row>
-    <row r="898" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A898" s="1"/>
-    </row>
-    <row r="899" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A899" s="1"/>
-    </row>
-    <row r="900" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A900" s="1"/>
-    </row>
-    <row r="901" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A901" s="1"/>
-    </row>
-    <row r="902" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A902" s="1"/>
-    </row>
-    <row r="903" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A903" s="1"/>
-    </row>
-    <row r="904" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A904" s="1"/>
-    </row>
-    <row r="905" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A905" s="1"/>
-    </row>
-    <row r="906" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A906" s="1"/>
-    </row>
-    <row r="907" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A907" s="1"/>
-    </row>
-    <row r="908" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A908" s="1"/>
-    </row>
-    <row r="909" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A909" s="1"/>
-    </row>
-    <row r="910" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A910" s="1"/>
-    </row>
-    <row r="911" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A911" s="1"/>
-    </row>
-    <row r="912" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A912" s="1"/>
-    </row>
-    <row r="913" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A913" s="1"/>
-    </row>
-    <row r="914" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A914" s="1"/>
-    </row>
-    <row r="915" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A915" s="1"/>
-    </row>
-    <row r="916" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A916" s="1"/>
-    </row>
-    <row r="917" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A917" s="1"/>
-    </row>
-    <row r="918" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A918" s="1"/>
-    </row>
-    <row r="919" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A919" s="1"/>
-    </row>
-    <row r="920" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A920" s="1"/>
-    </row>
-    <row r="921" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A921" s="1"/>
-    </row>
-    <row r="922" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A922" s="1"/>
-    </row>
-    <row r="923" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A923" s="1"/>
-    </row>
-    <row r="924" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A924" s="1"/>
-    </row>
-    <row r="925" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A925" s="1"/>
-    </row>
-    <row r="926" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A926" s="1"/>
-    </row>
-    <row r="927" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A927" s="1"/>
-    </row>
-    <row r="928" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A928" s="1"/>
-    </row>
-    <row r="929" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A929" s="1"/>
-    </row>
-    <row r="930" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A930" s="1"/>
-    </row>
-    <row r="931" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A931" s="1"/>
-    </row>
-    <row r="932" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A932" s="1"/>
-    </row>
-    <row r="933" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A933" s="1"/>
-    </row>
-    <row r="934" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A934" s="1"/>
-    </row>
-    <row r="935" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A935" s="1"/>
-    </row>
-    <row r="936" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A936" s="1"/>
-    </row>
-    <row r="937" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A937" s="1"/>
-    </row>
-    <row r="938" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A938" s="1"/>
-    </row>
-    <row r="939" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A939" s="1"/>
-    </row>
-    <row r="940" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A940" s="1"/>
-    </row>
-    <row r="941" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A941" s="1"/>
-    </row>
-    <row r="942" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A942" s="1"/>
-    </row>
-    <row r="943" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A943" s="1"/>
-    </row>
-    <row r="944" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A944" s="1"/>
-    </row>
-    <row r="945" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A945" s="1"/>
-    </row>
-    <row r="946" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A946" s="1"/>
-    </row>
-    <row r="947" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A947" s="1"/>
-    </row>
-    <row r="948" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A948" s="1"/>
-    </row>
-    <row r="949" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A949" s="1"/>
-    </row>
-    <row r="950" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A950" s="1"/>
-    </row>
-    <row r="951" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A951" s="1"/>
-    </row>
-    <row r="952" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A952" s="1"/>
-    </row>
-    <row r="953" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A953" s="1"/>
-    </row>
-    <row r="954" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A954" s="1"/>
-    </row>
-    <row r="955" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A955" s="1"/>
-    </row>
-    <row r="956" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A956" s="1"/>
-    </row>
-    <row r="957" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A957" s="1"/>
-    </row>
-    <row r="958" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A958" s="1"/>
-    </row>
-    <row r="959" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A959" s="1"/>
-    </row>
-    <row r="960" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A960" s="1"/>
-    </row>
-    <row r="961" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A961" s="1"/>
-    </row>
-    <row r="962" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A962" s="1"/>
-    </row>
-    <row r="963" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A963" s="1"/>
-    </row>
-    <row r="964" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A964" s="1"/>
-    </row>
-    <row r="965" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A965" s="1"/>
-    </row>
-    <row r="966" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A966" s="1"/>
-    </row>
-    <row r="967" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A967" s="1"/>
-    </row>
-    <row r="968" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A968" s="1"/>
-    </row>
-    <row r="969" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A969" s="1"/>
-    </row>
-    <row r="970" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A970" s="1"/>
-    </row>
-    <row r="971" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A971" s="1"/>
-    </row>
-    <row r="972" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A972" s="1"/>
-    </row>
-    <row r="973" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A973" s="1"/>
-    </row>
-    <row r="974" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A974" s="1"/>
-    </row>
-    <row r="975" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A975" s="1"/>
-    </row>
-    <row r="976" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A976" s="1"/>
-    </row>
-    <row r="977" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A977" s="1"/>
-    </row>
-    <row r="978" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A978" s="1"/>
-    </row>
-    <row r="979" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A979" s="1"/>
-    </row>
-    <row r="980" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A980" s="1"/>
-    </row>
-    <row r="981" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A981" s="1"/>
-    </row>
-    <row r="982" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A982" s="1"/>
-    </row>
-    <row r="983" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A983" s="1"/>
-    </row>
-    <row r="984" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A984" s="1"/>
-    </row>
-    <row r="985" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A985" s="1"/>
-    </row>
-    <row r="986" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A986" s="1"/>
-    </row>
-    <row r="987" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A987" s="1"/>
-    </row>
-    <row r="988" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A988" s="1"/>
-    </row>
-    <row r="989" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A989" s="1"/>
-    </row>
-    <row r="990" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A990" s="1"/>
-    </row>
-    <row r="991" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A991" s="1"/>
-    </row>
-    <row r="992" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A992" s="1"/>
-    </row>
-    <row r="993" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A993" s="1"/>
-    </row>
-    <row r="994" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A994" s="1"/>
-    </row>
-    <row r="995" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A995" s="1"/>
-    </row>
-    <row r="996" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A996" s="1"/>
-    </row>
-    <row r="997" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A997" s="1"/>
-    </row>
-    <row r="998" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A998" s="1"/>
-    </row>
-    <row r="999" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A999" s="1"/>
-    </row>
-    <row r="1000" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A1000" s="1"/>
-    </row>
-    <row r="1001" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A1001" s="1"/>
-    </row>
-    <row r="1002" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A1002" s="1"/>
-    </row>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="23">
     <mergeCell ref="T1:U1"/>
@@ -8076,9 +6519,9 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="12" max="20" man="1"/>
-    <brk id="15" max="20" man="1"/>
-    <brk id="23" max="20" man="1"/>
+    <brk id="13" max="0" man="1"/>
+    <brk id="16" max="0" man="1"/>
+    <brk id="24" max="0" man="1"/>
   </rowBreaks>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -8123,7 +6566,7 @@
       <c r="S1" s="2"/>
       <c r="T1" s="40">
         <f ca="1">NOW()</f>
-        <v>45161.5623958333</v>
+        <v>45449.6328935185</v>
       </c>
       <c r="W1" s="41" t="s">
         <v>1</v>
@@ -8152,7 +6595,7 @@
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -8164,7 +6607,7 @@
       <c r="I3" s="6"/>
       <c r="J3" s="7" t="str">
         <f ca="1">DATEDIF(W2,TODAY(),"Y")&amp;"歳"</f>
-        <v>30歳</v>
+        <v>31歳</v>
       </c>
       <c r="K3" s="6"/>
       <c r="L3" s="5" t="s">
@@ -8173,7 +6616,7 @@
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
       <c r="O3" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P3" s="6"/>
       <c r="Q3" s="6"/>
@@ -8195,7 +6638,7 @@
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -8213,7 +6656,7 @@
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R4" s="6"/>
       <c r="S4" s="5" t="s">
@@ -8234,7 +6677,7 @@
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -8270,7 +6713,7 @@
       <c r="A6" s="11"/>
       <c r="B6" s="12"/>
       <c r="C6" s="13" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q6" s="47"/>
       <c r="U6" s="48"/>
@@ -8279,7 +6722,7 @@
       <c r="A7" s="14"/>
       <c r="B7" s="15"/>
       <c r="C7" s="16" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
@@ -8403,7 +6846,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="65" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C10" s="28">
         <v>12</v>
@@ -8428,10 +6871,10 @@
       <c r="O10" s="32"/>
       <c r="P10" s="30"/>
       <c r="Q10" s="53" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="R10" s="53" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="S10" s="54">
         <v>44013</v>
@@ -8453,7 +6896,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="65" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C11" s="28">
         <v>6</v>
@@ -8480,10 +6923,10 @@
       <c r="O11" s="32"/>
       <c r="P11" s="30"/>
       <c r="Q11" s="53" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="R11" s="53" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="S11" s="54">
         <v>43831</v>
@@ -8505,7 +6948,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="65" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C12" s="28">
         <v>10</v>
@@ -8524,10 +6967,10 @@
       <c r="O12" s="32"/>
       <c r="P12" s="30"/>
       <c r="Q12" s="53" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="R12" s="53" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="S12" s="54">
         <v>43466</v>
@@ -8548,7 +6991,7 @@
         <v>4.1</v>
       </c>
       <c r="B13" s="65" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C13" s="28">
         <v>8</v>
@@ -8571,10 +7014,10 @@
       <c r="O13" s="32"/>
       <c r="P13" s="30"/>
       <c r="Q13" s="53" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="R13" s="53" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="S13" s="54">
         <v>43282</v>
@@ -8595,7 +7038,7 @@
         <v>4.2</v>
       </c>
       <c r="B14" s="65" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C14" s="28">
         <v>4</v>
@@ -8626,10 +7069,10 @@
       <c r="O14" s="32"/>
       <c r="P14" s="30"/>
       <c r="Q14" s="53" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="R14" s="53" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="S14" s="54">
         <v>43009</v>
@@ -8650,7 +7093,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="65" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C15" s="28">
         <v>12</v>
@@ -8685,10 +7128,10 @@
       <c r="O15" s="32"/>
       <c r="P15" s="30"/>
       <c r="Q15" s="53" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="R15" s="53" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="S15" s="54">
         <v>42465</v>
@@ -8710,7 +7153,7 @@
         <v>6</v>
       </c>
       <c r="B16" s="65" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C16" s="28"/>
       <c r="D16" s="29"/>
@@ -8727,10 +7170,10 @@
       <c r="O16" s="32"/>
       <c r="P16" s="30"/>
       <c r="Q16" s="53" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R16" s="53" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S16" s="54"/>
       <c r="T16" s="55" t="str">
@@ -8748,7 +7191,7 @@
         <v>7</v>
       </c>
       <c r="B17" s="65" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C17" s="28"/>
       <c r="D17" s="29"/>
@@ -8765,10 +7208,10 @@
       <c r="O17" s="32"/>
       <c r="P17" s="30"/>
       <c r="Q17" s="53" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R17" s="53" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S17" s="54"/>
       <c r="T17" s="55" t="str">
@@ -8786,7 +7229,7 @@
         <v>8</v>
       </c>
       <c r="B18" s="65" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C18" s="28"/>
       <c r="D18" s="29"/>
@@ -8803,10 +7246,10 @@
       <c r="O18" s="32"/>
       <c r="P18" s="30"/>
       <c r="Q18" s="53" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R18" s="53" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S18" s="54"/>
       <c r="T18" s="55" t="str">
@@ -8824,7 +7267,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="65" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C19" s="28"/>
       <c r="D19" s="29"/>
@@ -8841,10 +7284,10 @@
       <c r="O19" s="32"/>
       <c r="P19" s="30"/>
       <c r="Q19" s="53" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R19" s="53" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S19" s="54"/>
       <c r="T19" s="55" t="str">
@@ -8862,7 +7305,7 @@
         <v>10</v>
       </c>
       <c r="B20" s="65" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C20" s="28"/>
       <c r="D20" s="29"/>
@@ -8879,10 +7322,10 @@
       <c r="O20" s="32"/>
       <c r="P20" s="30"/>
       <c r="Q20" s="53" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R20" s="53" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S20" s="54"/>
       <c r="T20" s="55" t="str">
@@ -8900,7 +7343,7 @@
         <v>11</v>
       </c>
       <c r="B21" s="65" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C21" s="28"/>
       <c r="D21" s="29"/>
@@ -8917,10 +7360,10 @@
       <c r="O21" s="32"/>
       <c r="P21" s="30"/>
       <c r="Q21" s="53" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R21" s="53" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S21" s="54"/>
       <c r="T21" s="55" t="str">
@@ -8938,7 +7381,7 @@
         <v>12</v>
       </c>
       <c r="B22" s="65" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C22" s="28"/>
       <c r="D22" s="29"/>
@@ -8955,10 +7398,10 @@
       <c r="O22" s="32"/>
       <c r="P22" s="30"/>
       <c r="Q22" s="53" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R22" s="53" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="S22" s="54"/>
       <c r="T22" s="55" t="str">
@@ -9927,2340 +8370,784 @@
     <row r="222" ht="13.5" customHeight="1" spans="1:1">
       <c r="A222" s="1"/>
     </row>
-    <row r="223" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A223" s="1"/>
-    </row>
-    <row r="224" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A224" s="1"/>
-    </row>
-    <row r="225" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A225" s="1"/>
-    </row>
-    <row r="226" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A226" s="1"/>
-    </row>
-    <row r="227" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A227" s="1"/>
-    </row>
-    <row r="228" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A228" s="1"/>
-    </row>
-    <row r="229" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A229" s="1"/>
-    </row>
-    <row r="230" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A230" s="1"/>
-    </row>
-    <row r="231" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A231" s="1"/>
-    </row>
-    <row r="232" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A232" s="1"/>
-    </row>
-    <row r="233" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A233" s="1"/>
-    </row>
-    <row r="234" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A234" s="1"/>
-    </row>
-    <row r="235" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A235" s="1"/>
-    </row>
-    <row r="236" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A236" s="1"/>
-    </row>
-    <row r="237" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A237" s="1"/>
-    </row>
-    <row r="238" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A238" s="1"/>
-    </row>
-    <row r="239" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A239" s="1"/>
-    </row>
-    <row r="240" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A240" s="1"/>
-    </row>
-    <row r="241" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A241" s="1"/>
-    </row>
-    <row r="242" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A242" s="1"/>
-    </row>
-    <row r="243" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A243" s="1"/>
-    </row>
-    <row r="244" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A244" s="1"/>
-    </row>
-    <row r="245" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A245" s="1"/>
-    </row>
-    <row r="246" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A246" s="1"/>
-    </row>
-    <row r="247" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A247" s="1"/>
-    </row>
-    <row r="248" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A248" s="1"/>
-    </row>
-    <row r="249" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A249" s="1"/>
-    </row>
-    <row r="250" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A250" s="1"/>
-    </row>
-    <row r="251" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A251" s="1"/>
-    </row>
-    <row r="252" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A252" s="1"/>
-    </row>
-    <row r="253" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A253" s="1"/>
-    </row>
-    <row r="254" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A254" s="1"/>
-    </row>
-    <row r="255" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A255" s="1"/>
-    </row>
-    <row r="256" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A256" s="1"/>
-    </row>
-    <row r="257" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A257" s="1"/>
-    </row>
-    <row r="258" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A258" s="1"/>
-    </row>
-    <row r="259" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A259" s="1"/>
-    </row>
-    <row r="260" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A260" s="1"/>
-    </row>
-    <row r="261" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A261" s="1"/>
-    </row>
-    <row r="262" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A262" s="1"/>
-    </row>
-    <row r="263" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A263" s="1"/>
-    </row>
-    <row r="264" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A264" s="1"/>
-    </row>
-    <row r="265" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A265" s="1"/>
-    </row>
-    <row r="266" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A266" s="1"/>
-    </row>
-    <row r="267" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A267" s="1"/>
-    </row>
-    <row r="268" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A268" s="1"/>
-    </row>
-    <row r="269" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A269" s="1"/>
-    </row>
-    <row r="270" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A270" s="1"/>
-    </row>
-    <row r="271" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A271" s="1"/>
-    </row>
-    <row r="272" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A272" s="1"/>
-    </row>
-    <row r="273" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A273" s="1"/>
-    </row>
-    <row r="274" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A274" s="1"/>
-    </row>
-    <row r="275" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A275" s="1"/>
-    </row>
-    <row r="276" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A276" s="1"/>
-    </row>
-    <row r="277" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A277" s="1"/>
-    </row>
-    <row r="278" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A278" s="1"/>
-    </row>
-    <row r="279" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A279" s="1"/>
-    </row>
-    <row r="280" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A280" s="1"/>
-    </row>
-    <row r="281" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A281" s="1"/>
-    </row>
-    <row r="282" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A282" s="1"/>
-    </row>
-    <row r="283" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A283" s="1"/>
-    </row>
-    <row r="284" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A284" s="1"/>
-    </row>
-    <row r="285" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A285" s="1"/>
-    </row>
-    <row r="286" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A286" s="1"/>
-    </row>
-    <row r="287" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A287" s="1"/>
-    </row>
-    <row r="288" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A288" s="1"/>
-    </row>
-    <row r="289" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A289" s="1"/>
-    </row>
-    <row r="290" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A290" s="1"/>
-    </row>
-    <row r="291" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A291" s="1"/>
-    </row>
-    <row r="292" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A292" s="1"/>
-    </row>
-    <row r="293" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A293" s="1"/>
-    </row>
-    <row r="294" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A294" s="1"/>
-    </row>
-    <row r="295" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A295" s="1"/>
-    </row>
-    <row r="296" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A296" s="1"/>
-    </row>
-    <row r="297" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A297" s="1"/>
-    </row>
-    <row r="298" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A298" s="1"/>
-    </row>
-    <row r="299" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A299" s="1"/>
-    </row>
-    <row r="300" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A300" s="1"/>
-    </row>
-    <row r="301" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A301" s="1"/>
-    </row>
-    <row r="302" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A302" s="1"/>
-    </row>
-    <row r="303" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A303" s="1"/>
-    </row>
-    <row r="304" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A304" s="1"/>
-    </row>
-    <row r="305" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A305" s="1"/>
-    </row>
-    <row r="306" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A306" s="1"/>
-    </row>
-    <row r="307" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A307" s="1"/>
-    </row>
-    <row r="308" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A308" s="1"/>
-    </row>
-    <row r="309" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A309" s="1"/>
-    </row>
-    <row r="310" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A310" s="1"/>
-    </row>
-    <row r="311" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A311" s="1"/>
-    </row>
-    <row r="312" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A312" s="1"/>
-    </row>
-    <row r="313" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A313" s="1"/>
-    </row>
-    <row r="314" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A314" s="1"/>
-    </row>
-    <row r="315" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A315" s="1"/>
-    </row>
-    <row r="316" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A316" s="1"/>
-    </row>
-    <row r="317" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A317" s="1"/>
-    </row>
-    <row r="318" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A318" s="1"/>
-    </row>
-    <row r="319" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A319" s="1"/>
-    </row>
-    <row r="320" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A320" s="1"/>
-    </row>
-    <row r="321" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A321" s="1"/>
-    </row>
-    <row r="322" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A322" s="1"/>
-    </row>
-    <row r="323" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A323" s="1"/>
-    </row>
-    <row r="324" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A324" s="1"/>
-    </row>
-    <row r="325" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A325" s="1"/>
-    </row>
-    <row r="326" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A326" s="1"/>
-    </row>
-    <row r="327" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A327" s="1"/>
-    </row>
-    <row r="328" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A328" s="1"/>
-    </row>
-    <row r="329" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A329" s="1"/>
-    </row>
-    <row r="330" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A330" s="1"/>
-    </row>
-    <row r="331" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A331" s="1"/>
-    </row>
-    <row r="332" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A332" s="1"/>
-    </row>
-    <row r="333" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A333" s="1"/>
-    </row>
-    <row r="334" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A334" s="1"/>
-    </row>
-    <row r="335" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A335" s="1"/>
-    </row>
-    <row r="336" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A336" s="1"/>
-    </row>
-    <row r="337" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A337" s="1"/>
-    </row>
-    <row r="338" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A338" s="1"/>
-    </row>
-    <row r="339" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A339" s="1"/>
-    </row>
-    <row r="340" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A340" s="1"/>
-    </row>
-    <row r="341" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A341" s="1"/>
-    </row>
-    <row r="342" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A342" s="1"/>
-    </row>
-    <row r="343" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A343" s="1"/>
-    </row>
-    <row r="344" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A344" s="1"/>
-    </row>
-    <row r="345" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A345" s="1"/>
-    </row>
-    <row r="346" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A346" s="1"/>
-    </row>
-    <row r="347" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A347" s="1"/>
-    </row>
-    <row r="348" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A348" s="1"/>
-    </row>
-    <row r="349" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A349" s="1"/>
-    </row>
-    <row r="350" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A350" s="1"/>
-    </row>
-    <row r="351" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A351" s="1"/>
-    </row>
-    <row r="352" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A352" s="1"/>
-    </row>
-    <row r="353" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A353" s="1"/>
-    </row>
-    <row r="354" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A354" s="1"/>
-    </row>
-    <row r="355" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A355" s="1"/>
-    </row>
-    <row r="356" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A356" s="1"/>
-    </row>
-    <row r="357" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A357" s="1"/>
-    </row>
-    <row r="358" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A358" s="1"/>
-    </row>
-    <row r="359" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A359" s="1"/>
-    </row>
-    <row r="360" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A360" s="1"/>
-    </row>
-    <row r="361" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A361" s="1"/>
-    </row>
-    <row r="362" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A362" s="1"/>
-    </row>
-    <row r="363" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A363" s="1"/>
-    </row>
-    <row r="364" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A364" s="1"/>
-    </row>
-    <row r="365" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A365" s="1"/>
-    </row>
-    <row r="366" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A366" s="1"/>
-    </row>
-    <row r="367" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A367" s="1"/>
-    </row>
-    <row r="368" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A368" s="1"/>
-    </row>
-    <row r="369" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A369" s="1"/>
-    </row>
-    <row r="370" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A370" s="1"/>
-    </row>
-    <row r="371" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A371" s="1"/>
-    </row>
-    <row r="372" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A372" s="1"/>
-    </row>
-    <row r="373" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A373" s="1"/>
-    </row>
-    <row r="374" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A374" s="1"/>
-    </row>
-    <row r="375" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A375" s="1"/>
-    </row>
-    <row r="376" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A376" s="1"/>
-    </row>
-    <row r="377" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A377" s="1"/>
-    </row>
-    <row r="378" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A378" s="1"/>
-    </row>
-    <row r="379" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A379" s="1"/>
-    </row>
-    <row r="380" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A380" s="1"/>
-    </row>
-    <row r="381" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A381" s="1"/>
-    </row>
-    <row r="382" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A382" s="1"/>
-    </row>
-    <row r="383" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A383" s="1"/>
-    </row>
-    <row r="384" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A384" s="1"/>
-    </row>
-    <row r="385" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A385" s="1"/>
-    </row>
-    <row r="386" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A386" s="1"/>
-    </row>
-    <row r="387" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A387" s="1"/>
-    </row>
-    <row r="388" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A388" s="1"/>
-    </row>
-    <row r="389" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A389" s="1"/>
-    </row>
-    <row r="390" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A390" s="1"/>
-    </row>
-    <row r="391" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A391" s="1"/>
-    </row>
-    <row r="392" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A392" s="1"/>
-    </row>
-    <row r="393" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A393" s="1"/>
-    </row>
-    <row r="394" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A394" s="1"/>
-    </row>
-    <row r="395" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A395" s="1"/>
-    </row>
-    <row r="396" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A396" s="1"/>
-    </row>
-    <row r="397" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A397" s="1"/>
-    </row>
-    <row r="398" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A398" s="1"/>
-    </row>
-    <row r="399" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A399" s="1"/>
-    </row>
-    <row r="400" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A400" s="1"/>
-    </row>
-    <row r="401" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A401" s="1"/>
-    </row>
-    <row r="402" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A402" s="1"/>
-    </row>
-    <row r="403" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A403" s="1"/>
-    </row>
-    <row r="404" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A404" s="1"/>
-    </row>
-    <row r="405" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A405" s="1"/>
-    </row>
-    <row r="406" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A406" s="1"/>
-    </row>
-    <row r="407" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A407" s="1"/>
-    </row>
-    <row r="408" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A408" s="1"/>
-    </row>
-    <row r="409" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A409" s="1"/>
-    </row>
-    <row r="410" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A410" s="1"/>
-    </row>
-    <row r="411" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A411" s="1"/>
-    </row>
-    <row r="412" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A412" s="1"/>
-    </row>
-    <row r="413" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A413" s="1"/>
-    </row>
-    <row r="414" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A414" s="1"/>
-    </row>
-    <row r="415" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A415" s="1"/>
-    </row>
-    <row r="416" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A416" s="1"/>
-    </row>
-    <row r="417" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A417" s="1"/>
-    </row>
-    <row r="418" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A418" s="1"/>
-    </row>
-    <row r="419" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A419" s="1"/>
-    </row>
-    <row r="420" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A420" s="1"/>
-    </row>
-    <row r="421" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A421" s="1"/>
-    </row>
-    <row r="422" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A422" s="1"/>
-    </row>
-    <row r="423" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A423" s="1"/>
-    </row>
-    <row r="424" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A424" s="1"/>
-    </row>
-    <row r="425" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A425" s="1"/>
-    </row>
-    <row r="426" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A426" s="1"/>
-    </row>
-    <row r="427" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A427" s="1"/>
-    </row>
-    <row r="428" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A428" s="1"/>
-    </row>
-    <row r="429" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A429" s="1"/>
-    </row>
-    <row r="430" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A430" s="1"/>
-    </row>
-    <row r="431" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A431" s="1"/>
-    </row>
-    <row r="432" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A432" s="1"/>
-    </row>
-    <row r="433" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A433" s="1"/>
-    </row>
-    <row r="434" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A434" s="1"/>
-    </row>
-    <row r="435" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A435" s="1"/>
-    </row>
-    <row r="436" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A436" s="1"/>
-    </row>
-    <row r="437" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A437" s="1"/>
-    </row>
-    <row r="438" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A438" s="1"/>
-    </row>
-    <row r="439" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A439" s="1"/>
-    </row>
-    <row r="440" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A440" s="1"/>
-    </row>
-    <row r="441" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A441" s="1"/>
-    </row>
-    <row r="442" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A442" s="1"/>
-    </row>
-    <row r="443" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A443" s="1"/>
-    </row>
-    <row r="444" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A444" s="1"/>
-    </row>
-    <row r="445" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A445" s="1"/>
-    </row>
-    <row r="446" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A446" s="1"/>
-    </row>
-    <row r="447" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A447" s="1"/>
-    </row>
-    <row r="448" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A448" s="1"/>
-    </row>
-    <row r="449" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A449" s="1"/>
-    </row>
-    <row r="450" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A450" s="1"/>
-    </row>
-    <row r="451" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A451" s="1"/>
-    </row>
-    <row r="452" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A452" s="1"/>
-    </row>
-    <row r="453" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A453" s="1"/>
-    </row>
-    <row r="454" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A454" s="1"/>
-    </row>
-    <row r="455" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A455" s="1"/>
-    </row>
-    <row r="456" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A456" s="1"/>
-    </row>
-    <row r="457" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A457" s="1"/>
-    </row>
-    <row r="458" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A458" s="1"/>
-    </row>
-    <row r="459" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A459" s="1"/>
-    </row>
-    <row r="460" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A460" s="1"/>
-    </row>
-    <row r="461" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A461" s="1"/>
-    </row>
-    <row r="462" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A462" s="1"/>
-    </row>
-    <row r="463" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A463" s="1"/>
-    </row>
-    <row r="464" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A464" s="1"/>
-    </row>
-    <row r="465" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A465" s="1"/>
-    </row>
-    <row r="466" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A466" s="1"/>
-    </row>
-    <row r="467" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A467" s="1"/>
-    </row>
-    <row r="468" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A468" s="1"/>
-    </row>
-    <row r="469" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A469" s="1"/>
-    </row>
-    <row r="470" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A470" s="1"/>
-    </row>
-    <row r="471" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A471" s="1"/>
-    </row>
-    <row r="472" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A472" s="1"/>
-    </row>
-    <row r="473" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A473" s="1"/>
-    </row>
-    <row r="474" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A474" s="1"/>
-    </row>
-    <row r="475" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A475" s="1"/>
-    </row>
-    <row r="476" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A476" s="1"/>
-    </row>
-    <row r="477" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A477" s="1"/>
-    </row>
-    <row r="478" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A478" s="1"/>
-    </row>
-    <row r="479" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A479" s="1"/>
-    </row>
-    <row r="480" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A480" s="1"/>
-    </row>
-    <row r="481" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A481" s="1"/>
-    </row>
-    <row r="482" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A482" s="1"/>
-    </row>
-    <row r="483" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A483" s="1"/>
-    </row>
-    <row r="484" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A484" s="1"/>
-    </row>
-    <row r="485" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A485" s="1"/>
-    </row>
-    <row r="486" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A486" s="1"/>
-    </row>
-    <row r="487" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A487" s="1"/>
-    </row>
-    <row r="488" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A488" s="1"/>
-    </row>
-    <row r="489" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A489" s="1"/>
-    </row>
-    <row r="490" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A490" s="1"/>
-    </row>
-    <row r="491" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A491" s="1"/>
-    </row>
-    <row r="492" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A492" s="1"/>
-    </row>
-    <row r="493" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A493" s="1"/>
-    </row>
-    <row r="494" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A494" s="1"/>
-    </row>
-    <row r="495" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A495" s="1"/>
-    </row>
-    <row r="496" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A496" s="1"/>
-    </row>
-    <row r="497" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A497" s="1"/>
-    </row>
-    <row r="498" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A498" s="1"/>
-    </row>
-    <row r="499" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A499" s="1"/>
-    </row>
-    <row r="500" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A500" s="1"/>
-    </row>
-    <row r="501" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A501" s="1"/>
-    </row>
-    <row r="502" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A502" s="1"/>
-    </row>
-    <row r="503" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A503" s="1"/>
-    </row>
-    <row r="504" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A504" s="1"/>
-    </row>
-    <row r="505" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A505" s="1"/>
-    </row>
-    <row r="506" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A506" s="1"/>
-    </row>
-    <row r="507" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A507" s="1"/>
-    </row>
-    <row r="508" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A508" s="1"/>
-    </row>
-    <row r="509" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A509" s="1"/>
-    </row>
-    <row r="510" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A510" s="1"/>
-    </row>
-    <row r="511" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A511" s="1"/>
-    </row>
-    <row r="512" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A512" s="1"/>
-    </row>
-    <row r="513" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A513" s="1"/>
-    </row>
-    <row r="514" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A514" s="1"/>
-    </row>
-    <row r="515" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A515" s="1"/>
-    </row>
-    <row r="516" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A516" s="1"/>
-    </row>
-    <row r="517" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A517" s="1"/>
-    </row>
-    <row r="518" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A518" s="1"/>
-    </row>
-    <row r="519" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A519" s="1"/>
-    </row>
-    <row r="520" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A520" s="1"/>
-    </row>
-    <row r="521" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A521" s="1"/>
-    </row>
-    <row r="522" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A522" s="1"/>
-    </row>
-    <row r="523" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A523" s="1"/>
-    </row>
-    <row r="524" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A524" s="1"/>
-    </row>
-    <row r="525" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A525" s="1"/>
-    </row>
-    <row r="526" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A526" s="1"/>
-    </row>
-    <row r="527" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A527" s="1"/>
-    </row>
-    <row r="528" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A528" s="1"/>
-    </row>
-    <row r="529" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A529" s="1"/>
-    </row>
-    <row r="530" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A530" s="1"/>
-    </row>
-    <row r="531" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A531" s="1"/>
-    </row>
-    <row r="532" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A532" s="1"/>
-    </row>
-    <row r="533" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A533" s="1"/>
-    </row>
-    <row r="534" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A534" s="1"/>
-    </row>
-    <row r="535" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A535" s="1"/>
-    </row>
-    <row r="536" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A536" s="1"/>
-    </row>
-    <row r="537" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A537" s="1"/>
-    </row>
-    <row r="538" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A538" s="1"/>
-    </row>
-    <row r="539" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A539" s="1"/>
-    </row>
-    <row r="540" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A540" s="1"/>
-    </row>
-    <row r="541" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A541" s="1"/>
-    </row>
-    <row r="542" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A542" s="1"/>
-    </row>
-    <row r="543" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A543" s="1"/>
-    </row>
-    <row r="544" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A544" s="1"/>
-    </row>
-    <row r="545" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A545" s="1"/>
-    </row>
-    <row r="546" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A546" s="1"/>
-    </row>
-    <row r="547" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A547" s="1"/>
-    </row>
-    <row r="548" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A548" s="1"/>
-    </row>
-    <row r="549" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A549" s="1"/>
-    </row>
-    <row r="550" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A550" s="1"/>
-    </row>
-    <row r="551" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A551" s="1"/>
-    </row>
-    <row r="552" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A552" s="1"/>
-    </row>
-    <row r="553" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A553" s="1"/>
-    </row>
-    <row r="554" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A554" s="1"/>
-    </row>
-    <row r="555" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A555" s="1"/>
-    </row>
-    <row r="556" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A556" s="1"/>
-    </row>
-    <row r="557" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A557" s="1"/>
-    </row>
-    <row r="558" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A558" s="1"/>
-    </row>
-    <row r="559" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A559" s="1"/>
-    </row>
-    <row r="560" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A560" s="1"/>
-    </row>
-    <row r="561" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A561" s="1"/>
-    </row>
-    <row r="562" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A562" s="1"/>
-    </row>
-    <row r="563" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A563" s="1"/>
-    </row>
-    <row r="564" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A564" s="1"/>
-    </row>
-    <row r="565" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A565" s="1"/>
-    </row>
-    <row r="566" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A566" s="1"/>
-    </row>
-    <row r="567" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A567" s="1"/>
-    </row>
-    <row r="568" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A568" s="1"/>
-    </row>
-    <row r="569" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A569" s="1"/>
-    </row>
-    <row r="570" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A570" s="1"/>
-    </row>
-    <row r="571" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A571" s="1"/>
-    </row>
-    <row r="572" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A572" s="1"/>
-    </row>
-    <row r="573" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A573" s="1"/>
-    </row>
-    <row r="574" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A574" s="1"/>
-    </row>
-    <row r="575" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A575" s="1"/>
-    </row>
-    <row r="576" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A576" s="1"/>
-    </row>
-    <row r="577" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A577" s="1"/>
-    </row>
-    <row r="578" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A578" s="1"/>
-    </row>
-    <row r="579" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A579" s="1"/>
-    </row>
-    <row r="580" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A580" s="1"/>
-    </row>
-    <row r="581" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A581" s="1"/>
-    </row>
-    <row r="582" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A582" s="1"/>
-    </row>
-    <row r="583" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A583" s="1"/>
-    </row>
-    <row r="584" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A584" s="1"/>
-    </row>
-    <row r="585" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A585" s="1"/>
-    </row>
-    <row r="586" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A586" s="1"/>
-    </row>
-    <row r="587" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A587" s="1"/>
-    </row>
-    <row r="588" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A588" s="1"/>
-    </row>
-    <row r="589" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A589" s="1"/>
-    </row>
-    <row r="590" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A590" s="1"/>
-    </row>
-    <row r="591" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A591" s="1"/>
-    </row>
-    <row r="592" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A592" s="1"/>
-    </row>
-    <row r="593" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A593" s="1"/>
-    </row>
-    <row r="594" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A594" s="1"/>
-    </row>
-    <row r="595" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A595" s="1"/>
-    </row>
-    <row r="596" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A596" s="1"/>
-    </row>
-    <row r="597" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A597" s="1"/>
-    </row>
-    <row r="598" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A598" s="1"/>
-    </row>
-    <row r="599" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A599" s="1"/>
-    </row>
-    <row r="600" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A600" s="1"/>
-    </row>
-    <row r="601" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A601" s="1"/>
-    </row>
-    <row r="602" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A602" s="1"/>
-    </row>
-    <row r="603" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A603" s="1"/>
-    </row>
-    <row r="604" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A604" s="1"/>
-    </row>
-    <row r="605" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A605" s="1"/>
-    </row>
-    <row r="606" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A606" s="1"/>
-    </row>
-    <row r="607" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A607" s="1"/>
-    </row>
-    <row r="608" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A608" s="1"/>
-    </row>
-    <row r="609" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A609" s="1"/>
-    </row>
-    <row r="610" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A610" s="1"/>
-    </row>
-    <row r="611" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A611" s="1"/>
-    </row>
-    <row r="612" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A612" s="1"/>
-    </row>
-    <row r="613" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A613" s="1"/>
-    </row>
-    <row r="614" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A614" s="1"/>
-    </row>
-    <row r="615" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A615" s="1"/>
-    </row>
-    <row r="616" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A616" s="1"/>
-    </row>
-    <row r="617" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A617" s="1"/>
-    </row>
-    <row r="618" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A618" s="1"/>
-    </row>
-    <row r="619" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A619" s="1"/>
-    </row>
-    <row r="620" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A620" s="1"/>
-    </row>
-    <row r="621" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A621" s="1"/>
-    </row>
-    <row r="622" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A622" s="1"/>
-    </row>
-    <row r="623" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A623" s="1"/>
-    </row>
-    <row r="624" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A624" s="1"/>
-    </row>
-    <row r="625" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A625" s="1"/>
-    </row>
-    <row r="626" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A626" s="1"/>
-    </row>
-    <row r="627" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A627" s="1"/>
-    </row>
-    <row r="628" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A628" s="1"/>
-    </row>
-    <row r="629" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A629" s="1"/>
-    </row>
-    <row r="630" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A630" s="1"/>
-    </row>
-    <row r="631" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A631" s="1"/>
-    </row>
-    <row r="632" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A632" s="1"/>
-    </row>
-    <row r="633" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A633" s="1"/>
-    </row>
-    <row r="634" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A634" s="1"/>
-    </row>
-    <row r="635" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A635" s="1"/>
-    </row>
-    <row r="636" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A636" s="1"/>
-    </row>
-    <row r="637" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A637" s="1"/>
-    </row>
-    <row r="638" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A638" s="1"/>
-    </row>
-    <row r="639" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A639" s="1"/>
-    </row>
-    <row r="640" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A640" s="1"/>
-    </row>
-    <row r="641" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A641" s="1"/>
-    </row>
-    <row r="642" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A642" s="1"/>
-    </row>
-    <row r="643" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A643" s="1"/>
-    </row>
-    <row r="644" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A644" s="1"/>
-    </row>
-    <row r="645" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A645" s="1"/>
-    </row>
-    <row r="646" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A646" s="1"/>
-    </row>
-    <row r="647" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A647" s="1"/>
-    </row>
-    <row r="648" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A648" s="1"/>
-    </row>
-    <row r="649" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A649" s="1"/>
-    </row>
-    <row r="650" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A650" s="1"/>
-    </row>
-    <row r="651" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A651" s="1"/>
-    </row>
-    <row r="652" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A652" s="1"/>
-    </row>
-    <row r="653" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A653" s="1"/>
-    </row>
-    <row r="654" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A654" s="1"/>
-    </row>
-    <row r="655" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A655" s="1"/>
-    </row>
-    <row r="656" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A656" s="1"/>
-    </row>
-    <row r="657" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A657" s="1"/>
-    </row>
-    <row r="658" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A658" s="1"/>
-    </row>
-    <row r="659" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A659" s="1"/>
-    </row>
-    <row r="660" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A660" s="1"/>
-    </row>
-    <row r="661" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A661" s="1"/>
-    </row>
-    <row r="662" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A662" s="1"/>
-    </row>
-    <row r="663" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A663" s="1"/>
-    </row>
-    <row r="664" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A664" s="1"/>
-    </row>
-    <row r="665" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A665" s="1"/>
-    </row>
-    <row r="666" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A666" s="1"/>
-    </row>
-    <row r="667" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A667" s="1"/>
-    </row>
-    <row r="668" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A668" s="1"/>
-    </row>
-    <row r="669" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A669" s="1"/>
-    </row>
-    <row r="670" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A670" s="1"/>
-    </row>
-    <row r="671" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A671" s="1"/>
-    </row>
-    <row r="672" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A672" s="1"/>
-    </row>
-    <row r="673" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A673" s="1"/>
-    </row>
-    <row r="674" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A674" s="1"/>
-    </row>
-    <row r="675" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A675" s="1"/>
-    </row>
-    <row r="676" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A676" s="1"/>
-    </row>
-    <row r="677" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A677" s="1"/>
-    </row>
-    <row r="678" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A678" s="1"/>
-    </row>
-    <row r="679" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A679" s="1"/>
-    </row>
-    <row r="680" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A680" s="1"/>
-    </row>
-    <row r="681" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A681" s="1"/>
-    </row>
-    <row r="682" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A682" s="1"/>
-    </row>
-    <row r="683" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A683" s="1"/>
-    </row>
-    <row r="684" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A684" s="1"/>
-    </row>
-    <row r="685" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A685" s="1"/>
-    </row>
-    <row r="686" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A686" s="1"/>
-    </row>
-    <row r="687" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A687" s="1"/>
-    </row>
-    <row r="688" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A688" s="1"/>
-    </row>
-    <row r="689" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A689" s="1"/>
-    </row>
-    <row r="690" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A690" s="1"/>
-    </row>
-    <row r="691" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A691" s="1"/>
-    </row>
-    <row r="692" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A692" s="1"/>
-    </row>
-    <row r="693" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A693" s="1"/>
-    </row>
-    <row r="694" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A694" s="1"/>
-    </row>
-    <row r="695" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A695" s="1"/>
-    </row>
-    <row r="696" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A696" s="1"/>
-    </row>
-    <row r="697" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A697" s="1"/>
-    </row>
-    <row r="698" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A698" s="1"/>
-    </row>
-    <row r="699" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A699" s="1"/>
-    </row>
-    <row r="700" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A700" s="1"/>
-    </row>
-    <row r="701" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A701" s="1"/>
-    </row>
-    <row r="702" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A702" s="1"/>
-    </row>
-    <row r="703" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A703" s="1"/>
-    </row>
-    <row r="704" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A704" s="1"/>
-    </row>
-    <row r="705" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A705" s="1"/>
-    </row>
-    <row r="706" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A706" s="1"/>
-    </row>
-    <row r="707" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A707" s="1"/>
-    </row>
-    <row r="708" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A708" s="1"/>
-    </row>
-    <row r="709" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A709" s="1"/>
-    </row>
-    <row r="710" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A710" s="1"/>
-    </row>
-    <row r="711" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A711" s="1"/>
-    </row>
-    <row r="712" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A712" s="1"/>
-    </row>
-    <row r="713" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A713" s="1"/>
-    </row>
-    <row r="714" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A714" s="1"/>
-    </row>
-    <row r="715" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A715" s="1"/>
-    </row>
-    <row r="716" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A716" s="1"/>
-    </row>
-    <row r="717" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A717" s="1"/>
-    </row>
-    <row r="718" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A718" s="1"/>
-    </row>
-    <row r="719" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A719" s="1"/>
-    </row>
-    <row r="720" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A720" s="1"/>
-    </row>
-    <row r="721" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A721" s="1"/>
-    </row>
-    <row r="722" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A722" s="1"/>
-    </row>
-    <row r="723" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A723" s="1"/>
-    </row>
-    <row r="724" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A724" s="1"/>
-    </row>
-    <row r="725" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A725" s="1"/>
-    </row>
-    <row r="726" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A726" s="1"/>
-    </row>
-    <row r="727" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A727" s="1"/>
-    </row>
-    <row r="728" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A728" s="1"/>
-    </row>
-    <row r="729" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A729" s="1"/>
-    </row>
-    <row r="730" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A730" s="1"/>
-    </row>
-    <row r="731" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A731" s="1"/>
-    </row>
-    <row r="732" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A732" s="1"/>
-    </row>
-    <row r="733" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A733" s="1"/>
-    </row>
-    <row r="734" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A734" s="1"/>
-    </row>
-    <row r="735" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A735" s="1"/>
-    </row>
-    <row r="736" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A736" s="1"/>
-    </row>
-    <row r="737" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A737" s="1"/>
-    </row>
-    <row r="738" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A738" s="1"/>
-    </row>
-    <row r="739" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A739" s="1"/>
-    </row>
-    <row r="740" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A740" s="1"/>
-    </row>
-    <row r="741" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A741" s="1"/>
-    </row>
-    <row r="742" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A742" s="1"/>
-    </row>
-    <row r="743" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A743" s="1"/>
-    </row>
-    <row r="744" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A744" s="1"/>
-    </row>
-    <row r="745" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A745" s="1"/>
-    </row>
-    <row r="746" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A746" s="1"/>
-    </row>
-    <row r="747" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A747" s="1"/>
-    </row>
-    <row r="748" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A748" s="1"/>
-    </row>
-    <row r="749" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A749" s="1"/>
-    </row>
-    <row r="750" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A750" s="1"/>
-    </row>
-    <row r="751" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A751" s="1"/>
-    </row>
-    <row r="752" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A752" s="1"/>
-    </row>
-    <row r="753" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A753" s="1"/>
-    </row>
-    <row r="754" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A754" s="1"/>
-    </row>
-    <row r="755" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A755" s="1"/>
-    </row>
-    <row r="756" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A756" s="1"/>
-    </row>
-    <row r="757" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A757" s="1"/>
-    </row>
-    <row r="758" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A758" s="1"/>
-    </row>
-    <row r="759" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A759" s="1"/>
-    </row>
-    <row r="760" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A760" s="1"/>
-    </row>
-    <row r="761" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A761" s="1"/>
-    </row>
-    <row r="762" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A762" s="1"/>
-    </row>
-    <row r="763" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A763" s="1"/>
-    </row>
-    <row r="764" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A764" s="1"/>
-    </row>
-    <row r="765" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A765" s="1"/>
-    </row>
-    <row r="766" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A766" s="1"/>
-    </row>
-    <row r="767" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A767" s="1"/>
-    </row>
-    <row r="768" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A768" s="1"/>
-    </row>
-    <row r="769" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A769" s="1"/>
-    </row>
-    <row r="770" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A770" s="1"/>
-    </row>
-    <row r="771" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A771" s="1"/>
-    </row>
-    <row r="772" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A772" s="1"/>
-    </row>
-    <row r="773" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A773" s="1"/>
-    </row>
-    <row r="774" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A774" s="1"/>
-    </row>
-    <row r="775" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A775" s="1"/>
-    </row>
-    <row r="776" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A776" s="1"/>
-    </row>
-    <row r="777" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A777" s="1"/>
-    </row>
-    <row r="778" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A778" s="1"/>
-    </row>
-    <row r="779" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A779" s="1"/>
-    </row>
-    <row r="780" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A780" s="1"/>
-    </row>
-    <row r="781" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A781" s="1"/>
-    </row>
-    <row r="782" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A782" s="1"/>
-    </row>
-    <row r="783" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A783" s="1"/>
-    </row>
-    <row r="784" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A784" s="1"/>
-    </row>
-    <row r="785" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A785" s="1"/>
-    </row>
-    <row r="786" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A786" s="1"/>
-    </row>
-    <row r="787" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A787" s="1"/>
-    </row>
-    <row r="788" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A788" s="1"/>
-    </row>
-    <row r="789" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A789" s="1"/>
-    </row>
-    <row r="790" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A790" s="1"/>
-    </row>
-    <row r="791" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A791" s="1"/>
-    </row>
-    <row r="792" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A792" s="1"/>
-    </row>
-    <row r="793" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A793" s="1"/>
-    </row>
-    <row r="794" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A794" s="1"/>
-    </row>
-    <row r="795" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A795" s="1"/>
-    </row>
-    <row r="796" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A796" s="1"/>
-    </row>
-    <row r="797" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A797" s="1"/>
-    </row>
-    <row r="798" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A798" s="1"/>
-    </row>
-    <row r="799" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A799" s="1"/>
-    </row>
-    <row r="800" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A800" s="1"/>
-    </row>
-    <row r="801" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A801" s="1"/>
-    </row>
-    <row r="802" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A802" s="1"/>
-    </row>
-    <row r="803" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A803" s="1"/>
-    </row>
-    <row r="804" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A804" s="1"/>
-    </row>
-    <row r="805" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A805" s="1"/>
-    </row>
-    <row r="806" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A806" s="1"/>
-    </row>
-    <row r="807" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A807" s="1"/>
-    </row>
-    <row r="808" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A808" s="1"/>
-    </row>
-    <row r="809" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A809" s="1"/>
-    </row>
-    <row r="810" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A810" s="1"/>
-    </row>
-    <row r="811" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A811" s="1"/>
-    </row>
-    <row r="812" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A812" s="1"/>
-    </row>
-    <row r="813" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A813" s="1"/>
-    </row>
-    <row r="814" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A814" s="1"/>
-    </row>
-    <row r="815" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A815" s="1"/>
-    </row>
-    <row r="816" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A816" s="1"/>
-    </row>
-    <row r="817" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A817" s="1"/>
-    </row>
-    <row r="818" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A818" s="1"/>
-    </row>
-    <row r="819" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A819" s="1"/>
-    </row>
-    <row r="820" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A820" s="1"/>
-    </row>
-    <row r="821" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A821" s="1"/>
-    </row>
-    <row r="822" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A822" s="1"/>
-    </row>
-    <row r="823" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A823" s="1"/>
-    </row>
-    <row r="824" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A824" s="1"/>
-    </row>
-    <row r="825" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A825" s="1"/>
-    </row>
-    <row r="826" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A826" s="1"/>
-    </row>
-    <row r="827" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A827" s="1"/>
-    </row>
-    <row r="828" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A828" s="1"/>
-    </row>
-    <row r="829" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A829" s="1"/>
-    </row>
-    <row r="830" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A830" s="1"/>
-    </row>
-    <row r="831" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A831" s="1"/>
-    </row>
-    <row r="832" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A832" s="1"/>
-    </row>
-    <row r="833" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A833" s="1"/>
-    </row>
-    <row r="834" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A834" s="1"/>
-    </row>
-    <row r="835" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A835" s="1"/>
-    </row>
-    <row r="836" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A836" s="1"/>
-    </row>
-    <row r="837" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A837" s="1"/>
-    </row>
-    <row r="838" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A838" s="1"/>
-    </row>
-    <row r="839" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A839" s="1"/>
-    </row>
-    <row r="840" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A840" s="1"/>
-    </row>
-    <row r="841" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A841" s="1"/>
-    </row>
-    <row r="842" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A842" s="1"/>
-    </row>
-    <row r="843" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A843" s="1"/>
-    </row>
-    <row r="844" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A844" s="1"/>
-    </row>
-    <row r="845" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A845" s="1"/>
-    </row>
-    <row r="846" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A846" s="1"/>
-    </row>
-    <row r="847" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A847" s="1"/>
-    </row>
-    <row r="848" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A848" s="1"/>
-    </row>
-    <row r="849" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A849" s="1"/>
-    </row>
-    <row r="850" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A850" s="1"/>
-    </row>
-    <row r="851" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A851" s="1"/>
-    </row>
-    <row r="852" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A852" s="1"/>
-    </row>
-    <row r="853" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A853" s="1"/>
-    </row>
-    <row r="854" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A854" s="1"/>
-    </row>
-    <row r="855" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A855" s="1"/>
-    </row>
-    <row r="856" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A856" s="1"/>
-    </row>
-    <row r="857" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A857" s="1"/>
-    </row>
-    <row r="858" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A858" s="1"/>
-    </row>
-    <row r="859" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A859" s="1"/>
-    </row>
-    <row r="860" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A860" s="1"/>
-    </row>
-    <row r="861" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A861" s="1"/>
-    </row>
-    <row r="862" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A862" s="1"/>
-    </row>
-    <row r="863" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A863" s="1"/>
-    </row>
-    <row r="864" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A864" s="1"/>
-    </row>
-    <row r="865" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A865" s="1"/>
-    </row>
-    <row r="866" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A866" s="1"/>
-    </row>
-    <row r="867" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A867" s="1"/>
-    </row>
-    <row r="868" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A868" s="1"/>
-    </row>
-    <row r="869" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A869" s="1"/>
-    </row>
-    <row r="870" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A870" s="1"/>
-    </row>
-    <row r="871" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A871" s="1"/>
-    </row>
-    <row r="872" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A872" s="1"/>
-    </row>
-    <row r="873" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A873" s="1"/>
-    </row>
-    <row r="874" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A874" s="1"/>
-    </row>
-    <row r="875" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A875" s="1"/>
-    </row>
-    <row r="876" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A876" s="1"/>
-    </row>
-    <row r="877" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A877" s="1"/>
-    </row>
-    <row r="878" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A878" s="1"/>
-    </row>
-    <row r="879" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A879" s="1"/>
-    </row>
-    <row r="880" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A880" s="1"/>
-    </row>
-    <row r="881" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A881" s="1"/>
-    </row>
-    <row r="882" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A882" s="1"/>
-    </row>
-    <row r="883" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A883" s="1"/>
-    </row>
-    <row r="884" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A884" s="1"/>
-    </row>
-    <row r="885" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A885" s="1"/>
-    </row>
-    <row r="886" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A886" s="1"/>
-    </row>
-    <row r="887" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A887" s="1"/>
-    </row>
-    <row r="888" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A888" s="1"/>
-    </row>
-    <row r="889" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A889" s="1"/>
-    </row>
-    <row r="890" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A890" s="1"/>
-    </row>
-    <row r="891" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A891" s="1"/>
-    </row>
-    <row r="892" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A892" s="1"/>
-    </row>
-    <row r="893" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A893" s="1"/>
-    </row>
-    <row r="894" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A894" s="1"/>
-    </row>
-    <row r="895" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A895" s="1"/>
-    </row>
-    <row r="896" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A896" s="1"/>
-    </row>
-    <row r="897" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A897" s="1"/>
-    </row>
-    <row r="898" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A898" s="1"/>
-    </row>
-    <row r="899" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A899" s="1"/>
-    </row>
-    <row r="900" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A900" s="1"/>
-    </row>
-    <row r="901" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A901" s="1"/>
-    </row>
-    <row r="902" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A902" s="1"/>
-    </row>
-    <row r="903" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A903" s="1"/>
-    </row>
-    <row r="904" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A904" s="1"/>
-    </row>
-    <row r="905" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A905" s="1"/>
-    </row>
-    <row r="906" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A906" s="1"/>
-    </row>
-    <row r="907" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A907" s="1"/>
-    </row>
-    <row r="908" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A908" s="1"/>
-    </row>
-    <row r="909" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A909" s="1"/>
-    </row>
-    <row r="910" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A910" s="1"/>
-    </row>
-    <row r="911" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A911" s="1"/>
-    </row>
-    <row r="912" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A912" s="1"/>
-    </row>
-    <row r="913" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A913" s="1"/>
-    </row>
-    <row r="914" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A914" s="1"/>
-    </row>
-    <row r="915" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A915" s="1"/>
-    </row>
-    <row r="916" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A916" s="1"/>
-    </row>
-    <row r="917" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A917" s="1"/>
-    </row>
-    <row r="918" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A918" s="1"/>
-    </row>
-    <row r="919" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A919" s="1"/>
-    </row>
-    <row r="920" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A920" s="1"/>
-    </row>
-    <row r="921" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A921" s="1"/>
-    </row>
-    <row r="922" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A922" s="1"/>
-    </row>
-    <row r="923" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A923" s="1"/>
-    </row>
-    <row r="924" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A924" s="1"/>
-    </row>
-    <row r="925" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A925" s="1"/>
-    </row>
-    <row r="926" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A926" s="1"/>
-    </row>
-    <row r="927" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A927" s="1"/>
-    </row>
-    <row r="928" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A928" s="1"/>
-    </row>
-    <row r="929" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A929" s="1"/>
-    </row>
-    <row r="930" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A930" s="1"/>
-    </row>
-    <row r="931" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A931" s="1"/>
-    </row>
-    <row r="932" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A932" s="1"/>
-    </row>
-    <row r="933" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A933" s="1"/>
-    </row>
-    <row r="934" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A934" s="1"/>
-    </row>
-    <row r="935" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A935" s="1"/>
-    </row>
-    <row r="936" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A936" s="1"/>
-    </row>
-    <row r="937" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A937" s="1"/>
-    </row>
-    <row r="938" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A938" s="1"/>
-    </row>
-    <row r="939" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A939" s="1"/>
-    </row>
-    <row r="940" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A940" s="1"/>
-    </row>
-    <row r="941" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A941" s="1"/>
-    </row>
-    <row r="942" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A942" s="1"/>
-    </row>
-    <row r="943" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A943" s="1"/>
-    </row>
-    <row r="944" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A944" s="1"/>
-    </row>
-    <row r="945" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A945" s="1"/>
-    </row>
-    <row r="946" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A946" s="1"/>
-    </row>
-    <row r="947" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A947" s="1"/>
-    </row>
-    <row r="948" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A948" s="1"/>
-    </row>
-    <row r="949" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A949" s="1"/>
-    </row>
-    <row r="950" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A950" s="1"/>
-    </row>
-    <row r="951" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A951" s="1"/>
-    </row>
-    <row r="952" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A952" s="1"/>
-    </row>
-    <row r="953" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A953" s="1"/>
-    </row>
-    <row r="954" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A954" s="1"/>
-    </row>
-    <row r="955" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A955" s="1"/>
-    </row>
-    <row r="956" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A956" s="1"/>
-    </row>
-    <row r="957" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A957" s="1"/>
-    </row>
-    <row r="958" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A958" s="1"/>
-    </row>
-    <row r="959" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A959" s="1"/>
-    </row>
-    <row r="960" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A960" s="1"/>
-    </row>
-    <row r="961" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A961" s="1"/>
-    </row>
-    <row r="962" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A962" s="1"/>
-    </row>
-    <row r="963" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A963" s="1"/>
-    </row>
-    <row r="964" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A964" s="1"/>
-    </row>
-    <row r="965" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A965" s="1"/>
-    </row>
-    <row r="966" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A966" s="1"/>
-    </row>
-    <row r="967" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A967" s="1"/>
-    </row>
-    <row r="968" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A968" s="1"/>
-    </row>
-    <row r="969" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A969" s="1"/>
-    </row>
-    <row r="970" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A970" s="1"/>
-    </row>
-    <row r="971" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A971" s="1"/>
-    </row>
-    <row r="972" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A972" s="1"/>
-    </row>
-    <row r="973" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A973" s="1"/>
-    </row>
-    <row r="974" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A974" s="1"/>
-    </row>
-    <row r="975" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A975" s="1"/>
-    </row>
-    <row r="976" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A976" s="1"/>
-    </row>
-    <row r="977" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A977" s="1"/>
-    </row>
-    <row r="978" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A978" s="1"/>
-    </row>
-    <row r="979" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A979" s="1"/>
-    </row>
-    <row r="980" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A980" s="1"/>
-    </row>
-    <row r="981" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A981" s="1"/>
-    </row>
-    <row r="982" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A982" s="1"/>
-    </row>
-    <row r="983" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A983" s="1"/>
-    </row>
-    <row r="984" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A984" s="1"/>
-    </row>
-    <row r="985" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A985" s="1"/>
-    </row>
-    <row r="986" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A986" s="1"/>
-    </row>
-    <row r="987" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A987" s="1"/>
-    </row>
-    <row r="988" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A988" s="1"/>
-    </row>
-    <row r="989" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A989" s="1"/>
-    </row>
-    <row r="990" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A990" s="1"/>
-    </row>
-    <row r="991" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A991" s="1"/>
-    </row>
-    <row r="992" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A992" s="1"/>
-    </row>
-    <row r="993" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A993" s="1"/>
-    </row>
-    <row r="994" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A994" s="1"/>
-    </row>
-    <row r="995" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A995" s="1"/>
-    </row>
-    <row r="996" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A996" s="1"/>
-    </row>
-    <row r="997" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A997" s="1"/>
-    </row>
-    <row r="998" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A998" s="1"/>
-    </row>
-    <row r="999" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A999" s="1"/>
-    </row>
-    <row r="1000" ht="13.5" customHeight="1" spans="1:1">
-      <c r="A1000" s="1"/>
-    </row>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="23">
     <mergeCell ref="T1:U1"/>

--- a/スキルシート/スキルシート(小林雄磨).xlsx
+++ b/スキルシート/スキルシート(小林雄磨).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24300" windowHeight="12945"/>
+    <workbookView windowWidth="29895" windowHeight="14580"/>
   </bookViews>
   <sheets>
     <sheet name="スキルシート" sheetId="1" r:id="rId1"/>
@@ -1115,12 +1115,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy/mm"/>
-    <numFmt numFmtId="178" formatCode="yyyy/m/d&quot;現&quot;&quot;在&quot;"/>
-    <numFmt numFmtId="179" formatCode="yyyy/mm&quot;～&quot;"/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="yyyy/m/d&quot;現&quot;&quot;在&quot;"/>
     <numFmt numFmtId="180" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="181" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="181" formatCode="yyyy/mm&quot;～&quot;"/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -1210,24 +1210,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1238,8 +1230,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1248,6 +1255,21 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1262,14 +1284,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -1278,7 +1292,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1286,7 +1314,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1294,7 +1322,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1308,28 +1336,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -1338,25 +1344,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1395,7 +1395,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1407,7 +1485,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1419,7 +1497,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1431,91 +1509,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1533,7 +1527,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1545,37 +1551,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1836,23 +1836,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1868,6 +1853,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1897,16 +1897,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1914,8 +1914,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1933,148 +1933,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="8" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="14" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2181,7 +2181,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2213,13 +2213,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3666,7 +3666,7 @@
       <c r="S1" s="2"/>
       <c r="T1" s="40">
         <f ca="1">NOW()</f>
-        <v>45449.6328935185</v>
+        <v>45453.5807986111</v>
       </c>
       <c r="W1" s="41" t="s">
         <v>1</v>
@@ -6566,7 +6566,7 @@
       <c r="S1" s="2"/>
       <c r="T1" s="40">
         <f ca="1">NOW()</f>
-        <v>45449.6328935185</v>
+        <v>45453.5807986111</v>
       </c>
       <c r="W1" s="41" t="s">
         <v>1</v>

--- a/スキルシート/スキルシート(小林雄磨).xlsx
+++ b/スキルシート/スキルシート(小林雄磨).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29895" windowHeight="14580"/>
+    <workbookView windowWidth="18840" windowHeight="14580"/>
   </bookViews>
   <sheets>
     <sheet name="スキルシート" sheetId="1" r:id="rId1"/>
@@ -1115,11 +1115,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/mm"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="yyyy/m/d&quot;現&quot;&quot;在&quot;"/>
-    <numFmt numFmtId="180" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy/mm"/>
+    <numFmt numFmtId="178" formatCode="yyyy/m/d&quot;現&quot;&quot;在&quot;"/>
+    <numFmt numFmtId="179" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="181" formatCode="yyyy/mm&quot;～&quot;"/>
   </numFmts>
   <fonts count="37">
@@ -1217,7 +1217,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1230,23 +1230,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1254,7 +1246,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1291,17 +1298,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1312,17 +1328,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1337,23 +1345,15 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1395,7 +1395,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1407,19 +1485,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1431,13 +1521,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1455,67 +1539,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1527,25 +1557,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1557,25 +1575,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1833,11 +1833,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1853,6 +1859,44 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1886,195 +1930,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="8" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2181,7 +2181,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2213,13 +2213,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3630,8 +3630,8 @@
   <sheetPr/>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B3"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
@@ -3666,7 +3666,7 @@
       <c r="S1" s="2"/>
       <c r="T1" s="40">
         <f ca="1">NOW()</f>
-        <v>45453.5807986111</v>
+        <v>45453.6850810185</v>
       </c>
       <c r="W1" s="41" t="s">
         <v>1</v>
@@ -6566,7 +6566,7 @@
       <c r="S1" s="2"/>
       <c r="T1" s="40">
         <f ca="1">NOW()</f>
-        <v>45453.5807986111</v>
+        <v>45453.6850810185</v>
       </c>
       <c r="W1" s="41" t="s">
         <v>1</v>

--- a/スキルシート/スキルシート(小林雄磨).xlsx
+++ b/スキルシート/スキルシート(小林雄磨).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18840" windowHeight="14580"/>
+    <workbookView windowHeight="18345"/>
   </bookViews>
   <sheets>
     <sheet name="スキルシート" sheetId="1" r:id="rId1"/>
@@ -387,12 +387,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="MS PGothic"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve">【言語】
 </t>
     </r>
@@ -1115,9 +1109,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy/mm"/>
-    <numFmt numFmtId="178" formatCode="yyyy/m/d&quot;現&quot;&quot;在&quot;"/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm"/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d&quot;現&quot;&quot;在&quot;"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="180" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
     <numFmt numFmtId="181" formatCode="yyyy/mm&quot;～&quot;"/>
@@ -1209,17 +1203,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1227,58 +1215,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1298,11 +1234,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1313,16 +1257,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1336,14 +1332,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -1352,11 +1340,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1395,7 +1389,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1407,49 +1527,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1461,121 +1563,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1833,17 +1827,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1865,11 +1853,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1885,17 +1886,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1933,148 +1927,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="33" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2181,7 +2175,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2213,13 +2207,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3630,8 +3624,8 @@
   <sheetPr/>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="AE14" sqref="AE14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
@@ -3666,7 +3660,7 @@
       <c r="S1" s="2"/>
       <c r="T1" s="40">
         <f ca="1">NOW()</f>
-        <v>45453.6850810185</v>
+        <v>45455.6514583333</v>
       </c>
       <c r="W1" s="41" t="s">
         <v>1</v>
@@ -6566,7 +6560,7 @@
       <c r="S1" s="2"/>
       <c r="T1" s="40">
         <f ca="1">NOW()</f>
-        <v>45453.6850810185</v>
+        <v>45455.6514583333</v>
       </c>
       <c r="W1" s="41" t="s">
         <v>1</v>

--- a/スキルシート/スキルシート(小林雄磨).xlsx
+++ b/スキルシート/スキルシート(小林雄磨).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18345"/>
+    <workbookView windowWidth="28200" windowHeight="12945"/>
   </bookViews>
   <sheets>
     <sheet name="スキルシート" sheetId="1" r:id="rId1"/>
@@ -387,6 +387,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="MS PGothic"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">【言語】
 </t>
     </r>
@@ -1109,12 +1115,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/mm"/>
-    <numFmt numFmtId="177" formatCode="yyyy/m/d&quot;現&quot;&quot;在&quot;"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="181" formatCode="yyyy/mm&quot;～&quot;"/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm&quot;～&quot;"/>
+    <numFmt numFmtId="177" formatCode="yyyy/mm"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="yyyy/m/d&quot;現&quot;&quot;在&quot;"/>
+    <numFmt numFmtId="181" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
   <fonts count="37">
     <font>
@@ -1203,6 +1209,21 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -1215,6 +1236,42 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1242,21 +1299,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -1264,22 +1306,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1301,16 +1345,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1319,36 +1355,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1389,31 +1395,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1431,7 +1449,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1443,7 +1467,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1455,121 +1569,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1827,6 +1833,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1875,6 +1896,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1894,181 +1930,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="181" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="15" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="18" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2175,7 +2181,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
     </xf>
@@ -2207,13 +2213,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3625,7 +3631,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="AE14" sqref="AE14"/>
+      <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15" customHeight="1"/>
@@ -3660,7 +3666,7 @@
       <c r="S1" s="2"/>
       <c r="T1" s="40">
         <f ca="1">NOW()</f>
-        <v>45455.6514583333</v>
+        <v>45456.5706018519</v>
       </c>
       <c r="W1" s="41" t="s">
         <v>1</v>
@@ -6560,7 +6566,7 @@
       <c r="S1" s="2"/>
       <c r="T1" s="40">
         <f ca="1">NOW()</f>
-        <v>45455.6514583333</v>
+        <v>45456.5706018519</v>
       </c>
       <c r="W1" s="41" t="s">
         <v>1</v>
